--- a/SOO_simulations/DP1000_room_Swift_NDBR50_curve2/iteration/4/flowCurve.xlsx
+++ b/SOO_simulations/DP1000_room_Swift_NDBR50_curve2/iteration/4/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>947.3339074876216</v>
+        <v>9012.888916983991</v>
       </c>
       <c r="C2" t="n">
-        <v>947333907.4876215</v>
+        <v>9012888916.983992</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>1129.805125503196</v>
+        <v>9017.215276693156</v>
       </c>
       <c r="C3" t="n">
-        <v>1129805125.503196</v>
+        <v>9017215276.693155</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>1194.191531805794</v>
+        <v>9021.54198238655</v>
       </c>
       <c r="C4" t="n">
-        <v>1194191531.805794</v>
+        <v>9021541982.386551</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>1235.405411867545</v>
+        <v>9025.869033953546</v>
       </c>
       <c r="C5" t="n">
-        <v>1235405411.867545</v>
+        <v>9025869033.953547</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>1266.075498494437</v>
+        <v>9030.19643128359</v>
       </c>
       <c r="C6" t="n">
-        <v>1266075498.494437</v>
+        <v>9030196431.28359</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1290.63885811914</v>
+        <v>9034.524174266207</v>
       </c>
       <c r="C7" t="n">
-        <v>1290638858.11914</v>
+        <v>9034524174.266207</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1311.19485866671</v>
+        <v>9038.85226279101</v>
       </c>
       <c r="C8" t="n">
-        <v>1311194858.66671</v>
+        <v>9038852262.79101</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1328.909155460559</v>
+        <v>9043.180696747686</v>
       </c>
       <c r="C9" t="n">
-        <v>1328909155.460559</v>
+        <v>9043180696.747686</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1344.498431381558</v>
+        <v>9047.509476025996</v>
       </c>
       <c r="C10" t="n">
-        <v>1344498431.381558</v>
+        <v>9047509476.025997</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1358.435833817548</v>
+        <v>9051.83860051579</v>
       </c>
       <c r="C11" t="n">
-        <v>1358435833.817548</v>
+        <v>9051838600.515789</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1371.050635027422</v>
+        <v>9056.168070106989</v>
       </c>
       <c r="C12" t="n">
-        <v>1371050635.027422</v>
+        <v>9056168070.106989</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1382.581494994479</v>
+        <v>9060.497884689599</v>
       </c>
       <c r="C13" t="n">
-        <v>1382581494.994479</v>
+        <v>9060497884.6896</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1393.207090361719</v>
+        <v>9064.828044153699</v>
       </c>
       <c r="C14" t="n">
-        <v>1393207090.361719</v>
+        <v>9064828044.1537</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1403.064770264438</v>
+        <v>9069.158548389451</v>
       </c>
       <c r="C15" t="n">
-        <v>1403064770.264438</v>
+        <v>9069158548.38945</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1412.26245968409</v>
+        <v>9073.489397287094</v>
       </c>
       <c r="C16" t="n">
-        <v>1412262459.68409</v>
+        <v>9073489397.287094</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1420.886551291391</v>
+        <v>9077.820590736948</v>
       </c>
       <c r="C17" t="n">
-        <v>1420886551.291391</v>
+        <v>9077820590.736948</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1429.007309044375</v>
+        <v>9082.152128629408</v>
       </c>
       <c r="C18" t="n">
-        <v>1429007309.044375</v>
+        <v>9082152128.629408</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1436.682671145007</v>
+        <v>9086.484010854949</v>
       </c>
       <c r="C19" t="n">
-        <v>1436682671.145007</v>
+        <v>9086484010.854948</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1443.960990734284</v>
+        <v>9090.816237304123</v>
       </c>
       <c r="C20" t="n">
-        <v>1443960990.734284</v>
+        <v>9090816237.304123</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1450.883052331059</v>
+        <v>9095.148807867565</v>
       </c>
       <c r="C21" t="n">
-        <v>1450883052.331059</v>
+        <v>9095148807.867565</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1457.48358266833</v>
+        <v>9099.481722435979</v>
       </c>
       <c r="C22" t="n">
-        <v>1457483582.66833</v>
+        <v>9099481722.43598</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1463.79240113585</v>
+        <v>9103.814980900159</v>
       </c>
       <c r="C23" t="n">
-        <v>1463792401.13585</v>
+        <v>9103814980.900158</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1469.835308528783</v>
+        <v>9108.148583150967</v>
       </c>
       <c r="C24" t="n">
-        <v>1469835308.528783</v>
+        <v>9108148583.150967</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1475.634782592663</v>
+        <v>9112.482529079351</v>
       </c>
       <c r="C25" t="n">
-        <v>1475634782.592663</v>
+        <v>9112482529.079351</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1481.210528782426</v>
+        <v>9116.816818576322</v>
       </c>
       <c r="C26" t="n">
-        <v>1481210528.782426</v>
+        <v>9116816818.576323</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1486.579921041769</v>
+        <v>9121.151451532991</v>
       </c>
       <c r="C27" t="n">
-        <v>1486579921.04177</v>
+        <v>9121151451.532991</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1491.758358007127</v>
+        <v>9125.486427840528</v>
       </c>
       <c r="C28" t="n">
-        <v>1491758358.007127</v>
+        <v>9125486427.840528</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1496.759553436832</v>
+        <v>9129.821747390191</v>
       </c>
       <c r="C29" t="n">
-        <v>1496759553.436831</v>
+        <v>9129821747.390192</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1501.595774956257</v>
+        <v>9134.157410073309</v>
       </c>
       <c r="C30" t="n">
-        <v>1501595774.956257</v>
+        <v>9134157410.073309</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1506.278041803468</v>
+        <v>9138.493415781291</v>
       </c>
       <c r="C31" t="n">
-        <v>1506278041.803468</v>
+        <v>9138493415.781292</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1510.816289764433</v>
+        <v>9142.829764405626</v>
       </c>
       <c r="C32" t="n">
-        <v>1510816289.764433</v>
+        <v>9142829764.405626</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1515.219509636825</v>
+        <v>9147.166455837876</v>
       </c>
       <c r="C33" t="n">
-        <v>1515219509.636826</v>
+        <v>9147166455.837875</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1519.495864174721</v>
+        <v>9151.503489969682</v>
       </c>
       <c r="C34" t="n">
-        <v>1519495864.174721</v>
+        <v>9151503489.969683</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1523.652787416412</v>
+        <v>9155.840866692761</v>
       </c>
       <c r="C35" t="n">
-        <v>1523652787.416412</v>
+        <v>9155840866.69276</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1527.697069494795</v>
+        <v>9160.178585898908</v>
       </c>
       <c r="C36" t="n">
-        <v>1527697069.494795</v>
+        <v>9160178585.898909</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1531.634929410598</v>
+        <v>9164.516647479999</v>
       </c>
       <c r="C37" t="n">
-        <v>1531634929.410598</v>
+        <v>9164516647.48</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1535.472077767154</v>
+        <v>9168.855051327975</v>
       </c>
       <c r="C38" t="n">
-        <v>1535472077.767154</v>
+        <v>9168855051.327974</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1539.213771088001</v>
+        <v>9173.193797334867</v>
       </c>
       <c r="C39" t="n">
-        <v>1539213771.088001</v>
+        <v>9173193797.334867</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1542.864859040537</v>
+        <v>9177.532885392771</v>
       </c>
       <c r="C40" t="n">
-        <v>1542864859.040537</v>
+        <v>9177532885.392771</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1546.42982565207</v>
+        <v>9181.872315393872</v>
       </c>
       <c r="C41" t="n">
-        <v>1546429825.65207</v>
+        <v>9181872315.393871</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1549.912825414948</v>
+        <v>9186.21208723042</v>
       </c>
       <c r="C42" t="n">
-        <v>1549912825.414948</v>
+        <v>9186212087.230421</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1553.317715024884</v>
+        <v>9190.552200794747</v>
       </c>
       <c r="C43" t="n">
-        <v>1553317715.024884</v>
+        <v>9190552200.794748</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1556.6480813729</v>
+        <v>9194.892655979262</v>
       </c>
       <c r="C44" t="n">
-        <v>1556648081.3729</v>
+        <v>9194892655.979261</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1559.907266310717</v>
+        <v>9199.233452676448</v>
       </c>
       <c r="C45" t="n">
-        <v>1559907266.310717</v>
+        <v>9199233452.676449</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1563.098388626978</v>
+        <v>9203.574590778862</v>
       </c>
       <c r="C46" t="n">
-        <v>1563098388.626978</v>
+        <v>9203574590.778862</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1566.224363603952</v>
+        <v>9207.916070179142</v>
       </c>
       <c r="C47" t="n">
-        <v>1566224363.603952</v>
+        <v>9207916070.179142</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1569.287920468319</v>
+        <v>9212.257890769999</v>
       </c>
       <c r="C48" t="n">
-        <v>1569287920.468319</v>
+        <v>9212257890.769999</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1572.291618003141</v>
+        <v>9216.600052444222</v>
       </c>
       <c r="C49" t="n">
-        <v>1572291618.003141</v>
+        <v>9216600052.444223</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1575.237858549347</v>
+        <v>9220.942555094673</v>
       </c>
       <c r="C50" t="n">
-        <v>1575237858.549347</v>
+        <v>9220942555.094673</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1578.128900592588</v>
+        <v>9225.285398614289</v>
       </c>
       <c r="C51" t="n">
-        <v>1578128900.592588</v>
+        <v>9225285398.614288</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1580.966870104024</v>
+        <v>9229.628582896086</v>
       </c>
       <c r="C52" t="n">
-        <v>1580966870.104024</v>
+        <v>9229628582.896086</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1583.753770780603</v>
+        <v>9233.972107833155</v>
       </c>
       <c r="C53" t="n">
-        <v>1583753770.780603</v>
+        <v>9233972107.833155</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1586.491493310876</v>
+        <v>9238.31597331866</v>
       </c>
       <c r="C54" t="n">
-        <v>1586491493.310876</v>
+        <v>9238315973.318661</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1589.18182377585</v>
+        <v>9242.660179245842</v>
       </c>
       <c r="C55" t="n">
-        <v>1589181823.77585</v>
+        <v>9242660179.245842</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1591.826451280243</v>
+        <v>9247.004725508019</v>
       </c>
       <c r="C56" t="n">
-        <v>1591826451.280243</v>
+        <v>9247004725.508018</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1594.426974897472</v>
+        <v>9251.349611998581</v>
       </c>
       <c r="C57" t="n">
-        <v>1594426974.897472</v>
+        <v>9251349611.998581</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1596.984910001288</v>
+        <v>9255.694838610993</v>
       </c>
       <c r="C58" t="n">
-        <v>1596984910.001288</v>
+        <v>9255694838.610992</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1599.501694048147</v>
+        <v>9260.040405238798</v>
       </c>
       <c r="C59" t="n">
-        <v>1599501694.048147</v>
+        <v>9260040405.238798</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1601.978691866639</v>
+        <v>9264.386311775612</v>
       </c>
       <c r="C60" t="n">
-        <v>1601978691.866639</v>
+        <v>9264386311.775612</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1604.417200503716</v>
+        <v>9268.732558115127</v>
       </c>
       <c r="C61" t="n">
-        <v>1604417200.503716</v>
+        <v>9268732558.115128</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1606.81845367166</v>
+        <v>9273.079144151106</v>
       </c>
       <c r="C62" t="n">
-        <v>1606818453.67166</v>
+        <v>9273079144.151106</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1609.183625834726</v>
+        <v>9277.426069777393</v>
       </c>
       <c r="C63" t="n">
-        <v>1609183625.834726</v>
+        <v>9277426069.777393</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1611.513835970044</v>
+        <v>9281.773334887903</v>
       </c>
       <c r="C64" t="n">
-        <v>1611513835.970044</v>
+        <v>9281773334.887903</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1613.810151033519</v>
+        <v>9286.120939376626</v>
       </c>
       <c r="C65" t="n">
-        <v>1613810151.033519</v>
+        <v>9286120939.376625</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1616.073589158156</v>
+        <v>9290.468883137624</v>
       </c>
       <c r="C66" t="n">
-        <v>1616073589.158156</v>
+        <v>9290468883.137625</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1618.305122609279</v>
+        <v>9294.817166065035</v>
       </c>
       <c r="C67" t="n">
-        <v>1618305122.609279</v>
+        <v>9294817166.065035</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1620.505680518555</v>
+        <v>9299.165788053077</v>
       </c>
       <c r="C68" t="n">
-        <v>1620505680.518554</v>
+        <v>9299165788.053076</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1622.676151416445</v>
+        <v>9303.514748996035</v>
       </c>
       <c r="C69" t="n">
-        <v>1622676151.416445</v>
+        <v>9303514748.996035</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1624.817385580717</v>
+        <v>9307.864048788266</v>
       </c>
       <c r="C70" t="n">
-        <v>1624817385.580717</v>
+        <v>9307864048.788265</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1626.930197216848</v>
+        <v>9312.213687324211</v>
       </c>
       <c r="C71" t="n">
-        <v>1626930197.216848</v>
+        <v>9312213687.324211</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1629.015366484614</v>
+        <v>9316.563664498377</v>
       </c>
       <c r="C72" t="n">
-        <v>1629015366.484614</v>
+        <v>9316563664.498377</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1631.073641383725</v>
+        <v>9320.913980205349</v>
       </c>
       <c r="C73" t="n">
-        <v>1631073641.383725</v>
+        <v>9320913980.205349</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1633.105739510149</v>
+        <v>9325.264634339779</v>
       </c>
       <c r="C74" t="n">
-        <v>1633105739.510149</v>
+        <v>9325264634.339779</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1635.112349693653</v>
+        <v>9329.615626796403</v>
       </c>
       <c r="C75" t="n">
-        <v>1635112349.693652</v>
+        <v>9329615626.796404</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1637.09413352609</v>
+        <v>9333.966957470024</v>
       </c>
       <c r="C76" t="n">
-        <v>1637094133.52609</v>
+        <v>9333966957.470024</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1639.051726789105</v>
+        <v>9338.318626255521</v>
       </c>
       <c r="C77" t="n">
-        <v>1639051726.789105</v>
+        <v>9338318626.255522</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1640.985740789102</v>
+        <v>9342.670633047843</v>
       </c>
       <c r="C78" t="n">
-        <v>1640985740.789102</v>
+        <v>9342670633.047842</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1642.896763606642</v>
+        <v>9347.022977742014</v>
       </c>
       <c r="C79" t="n">
-        <v>1642896763.606642</v>
+        <v>9347022977.742014</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1644.785361266786</v>
+        <v>9351.375660233134</v>
       </c>
       <c r="C80" t="n">
-        <v>1644785361.266786</v>
+        <v>9351375660.233133</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1646.652078836323</v>
+        <v>9355.728680416378</v>
       </c>
       <c r="C81" t="n">
-        <v>1646652078.836323</v>
+        <v>9355728680.416378</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1648.497441453318</v>
+        <v>9360.082038186983</v>
       </c>
       <c r="C82" t="n">
-        <v>1648497441.453318</v>
+        <v>9360082038.186983</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1650.321955293937</v>
+        <v>9364.435733440274</v>
       </c>
       <c r="C83" t="n">
-        <v>1650321955.293937</v>
+        <v>9364435733.440273</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1652.126108481096</v>
+        <v>9368.789766071635</v>
       </c>
       <c r="C84" t="n">
-        <v>1652126108.481096</v>
+        <v>9368789766.071636</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1653.910371939092</v>
+        <v>9373.144135976538</v>
       </c>
       <c r="C85" t="n">
-        <v>1653910371.939092</v>
+        <v>9373144135.976538</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1655.675200198046</v>
+        <v>9377.498843050511</v>
       </c>
       <c r="C86" t="n">
-        <v>1655675200.198046</v>
+        <v>9377498843.05051</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1657.421032151645</v>
+        <v>9381.853887189167</v>
       </c>
       <c r="C87" t="n">
-        <v>1657421032.151645</v>
+        <v>9381853887.189167</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1659.148291771425</v>
+        <v>9386.209268288188</v>
       </c>
       <c r="C88" t="n">
-        <v>1659148291.771425</v>
+        <v>9386209268.288189</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1660.857388780555</v>
+        <v>9390.564986243331</v>
       </c>
       <c r="C89" t="n">
-        <v>1660857388.780555</v>
+        <v>9390564986.243332</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1662.54871928985</v>
+        <v>9394.921040950416</v>
       </c>
       <c r="C90" t="n">
-        <v>1662548719.28985</v>
+        <v>9394921040.950417</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1664.22266639854</v>
+        <v>9399.277432305349</v>
       </c>
       <c r="C91" t="n">
-        <v>1664222666.39854</v>
+        <v>9399277432.305349</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1665.879600762111</v>
+        <v>9403.634160204099</v>
       </c>
       <c r="C92" t="n">
-        <v>1665879600.762111</v>
+        <v>9403634160.2041</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1667.519881129379</v>
+        <v>9407.991224542715</v>
       </c>
       <c r="C93" t="n">
-        <v>1667519881.129379</v>
+        <v>9407991224.542715</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1669.143854850763</v>
+        <v>9412.348625217306</v>
       </c>
       <c r="C94" t="n">
-        <v>1669143854.850763</v>
+        <v>9412348625.217306</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1670.75185835962</v>
+        <v>9416.706362124065</v>
       </c>
       <c r="C95" t="n">
-        <v>1670751858.35962</v>
+        <v>9416706362.124065</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1672.344217628314</v>
+        <v>9421.064435159249</v>
       </c>
       <c r="C96" t="n">
-        <v>1672344217.628314</v>
+        <v>9421064435.159248</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1673.921248600631</v>
+        <v>9425.422844219198</v>
       </c>
       <c r="C97" t="n">
-        <v>1673921248.600631</v>
+        <v>9425422844.219198</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1675.483257601961</v>
+        <v>9429.781589200309</v>
       </c>
       <c r="C98" t="n">
-        <v>1675483257.601961</v>
+        <v>9429781589.20031</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1677.030541728657</v>
+        <v>9434.140669999062</v>
       </c>
       <c r="C99" t="n">
-        <v>1677030541.728657</v>
+        <v>9434140669.999062</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1678.563389217781</v>
+        <v>9438.500086512004</v>
       </c>
       <c r="C100" t="n">
-        <v>1678563389.217781</v>
+        <v>9438500086.512003</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1680.082079798454</v>
+        <v>9442.859838635757</v>
       </c>
       <c r="C101" t="n">
-        <v>1680082079.798454</v>
+        <v>9442859838.635757</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1681.586885025876</v>
+        <v>9447.219926267009</v>
       </c>
       <c r="C102" t="n">
-        <v>1681586885.025876</v>
+        <v>9447219926.26701</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1683.078068599044</v>
+        <v>9451.580349302525</v>
       </c>
       <c r="C103" t="n">
-        <v>1683078068.599044</v>
+        <v>9451580349.302525</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1684.555886663119</v>
+        <v>9455.941107639139</v>
       </c>
       <c r="C104" t="n">
-        <v>1684555886.663119</v>
+        <v>9455941107.639139</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1686.020588097316</v>
+        <v>9460.302201173759</v>
       </c>
       <c r="C105" t="n">
-        <v>1686020588.097316</v>
+        <v>9460302201.173759</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1687.472414789154</v>
+        <v>9464.663629803359</v>
       </c>
       <c r="C106" t="n">
-        <v>1687472414.789154</v>
+        <v>9464663629.80336</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1688.91160189583</v>
+        <v>9469.025393424987</v>
       </c>
       <c r="C107" t="n">
-        <v>1688911601.89583</v>
+        <v>9469025393.424986</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1690.338378093441</v>
+        <v>9473.387491935762</v>
       </c>
       <c r="C108" t="n">
-        <v>1690338378.093441</v>
+        <v>9473387491.935762</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1691.752965814722</v>
+        <v>9477.74992523288</v>
       </c>
       <c r="C109" t="n">
-        <v>1691752965.814722</v>
+        <v>9477749925.23288</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1693.15558147594</v>
+        <v>9482.112693213596</v>
       </c>
       <c r="C110" t="n">
-        <v>1693155581.47594</v>
+        <v>9482112693.213596</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1694.546435693528</v>
+        <v>9486.475795775244</v>
       </c>
       <c r="C111" t="n">
-        <v>1694546435.693528</v>
+        <v>9486475795.775244</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1695.925733491009</v>
+        <v>9490.839232815231</v>
       </c>
       <c r="C112" t="n">
-        <v>1695925733.491009</v>
+        <v>9490839232.815231</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1697.293674496744</v>
+        <v>9495.203004231027</v>
       </c>
       <c r="C113" t="n">
-        <v>1697293674.496743</v>
+        <v>9495203004.231028</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1698.650453132962</v>
+        <v>9499.567109920179</v>
       </c>
       <c r="C114" t="n">
-        <v>1698650453.132962</v>
+        <v>9499567109.920179</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1699.996258796565</v>
+        <v>9503.931549780298</v>
       </c>
       <c r="C115" t="n">
-        <v>1699996258.796565</v>
+        <v>9503931549.780298</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1701.331276032111</v>
+        <v>9508.296323709073</v>
       </c>
       <c r="C116" t="n">
-        <v>1701331276.03211</v>
+        <v>9508296323.709074</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1702.655684697374</v>
+        <v>9512.661431604263</v>
       </c>
       <c r="C117" t="n">
-        <v>1702655684.697374</v>
+        <v>9512661431.604263</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1703.969660121893</v>
+        <v>9517.026873363689</v>
       </c>
       <c r="C118" t="n">
-        <v>1703969660.121893</v>
+        <v>9517026873.363689</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1705.273373258828</v>
+        <v>9521.392648885252</v>
       </c>
       <c r="C119" t="n">
-        <v>1705273373.258828</v>
+        <v>9521392648.885252</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1706.566990830476</v>
+        <v>9525.758758066919</v>
       </c>
       <c r="C120" t="n">
-        <v>1706566990.830476</v>
+        <v>9525758758.066919</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1707.850675467777</v>
+        <v>9530.125200806724</v>
       </c>
       <c r="C121" t="n">
-        <v>1707850675.467777</v>
+        <v>9530125200.806725</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1709.124585844071</v>
+        <v>9534.491977002777</v>
       </c>
       <c r="C122" t="n">
-        <v>1709124585.844071</v>
+        <v>9534491977.002777</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1710.388876803427</v>
+        <v>9538.859086553255</v>
       </c>
       <c r="C123" t="n">
-        <v>1710388876.803427</v>
+        <v>9538859086.553255</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1711.643699483782</v>
+        <v>9543.226529356405</v>
       </c>
       <c r="C124" t="n">
-        <v>1711643699.483782</v>
+        <v>9543226529.356405</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1712.889201435147</v>
+        <v>9547.594305310546</v>
       </c>
       <c r="C125" t="n">
-        <v>1712889201.435147</v>
+        <v>9547594305.310545</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1714.125526733119</v>
+        <v>9551.962414314063</v>
       </c>
       <c r="C126" t="n">
-        <v>1714125526.733119</v>
+        <v>9551962414.314062</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1715.352816087924</v>
+        <v>9556.330856265411</v>
       </c>
       <c r="C127" t="n">
-        <v>1715352816.087924</v>
+        <v>9556330856.265411</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1716.571206949189</v>
+        <v>9560.69963106312</v>
       </c>
       <c r="C128" t="n">
-        <v>1716571206.949189</v>
+        <v>9560699631.06312</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1717.780833606655</v>
+        <v>9565.068738605783</v>
       </c>
       <c r="C129" t="n">
-        <v>1717780833.606655</v>
+        <v>9565068738.605783</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1718.981827287014</v>
+        <v>9569.43817879207</v>
       </c>
       <c r="C130" t="n">
-        <v>1718981827.287014</v>
+        <v>9569438178.79207</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1720.174316247048</v>
+        <v>9573.80795152071</v>
       </c>
       <c r="C131" t="n">
-        <v>1720174316.247048</v>
+        <v>9573807951.52071</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1721.358425863238</v>
+        <v>9578.178056690509</v>
       </c>
       <c r="C132" t="n">
-        <v>1721358425.863238</v>
+        <v>9578178056.69051</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1722.534278718007</v>
+        <v>9582.548494200344</v>
       </c>
       <c r="C133" t="n">
-        <v>1722534278.718007</v>
+        <v>9582548494.200344</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1723.701994682742</v>
+        <v>9586.91926394915</v>
       </c>
       <c r="C134" t="n">
-        <v>1723701994.682742</v>
+        <v>9586919263.94915</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1724.861690997742</v>
+        <v>9591.290365835945</v>
       </c>
       <c r="C135" t="n">
-        <v>1724861690.997742</v>
+        <v>9591290365.835945</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1726.013482349231</v>
+        <v>9595.661799759808</v>
       </c>
       <c r="C136" t="n">
-        <v>1726013482.349231</v>
+        <v>9595661799.759808</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1727.157480943553</v>
+        <v>9600.033565619888</v>
       </c>
       <c r="C137" t="n">
-        <v>1727157480.943553</v>
+        <v>9600033565.619888</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1728.293796578695</v>
+        <v>9604.405663315407</v>
       </c>
       <c r="C138" t="n">
-        <v>1728293796.578695</v>
+        <v>9604405663.315407</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1729.422536713221</v>
+        <v>9608.778092745644</v>
       </c>
       <c r="C139" t="n">
-        <v>1729422536.713221</v>
+        <v>9608778092.745644</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1730.543806532761</v>
+        <v>9613.150853809964</v>
       </c>
       <c r="C140" t="n">
-        <v>1730543806.532761</v>
+        <v>9613150853.809965</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1731.657709014137</v>
+        <v>9617.523946407789</v>
       </c>
       <c r="C141" t="n">
-        <v>1731657709.014137</v>
+        <v>9617523946.407789</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1732.764344987233</v>
+        <v>9621.897370438612</v>
       </c>
       <c r="C142" t="n">
-        <v>1732764344.987233</v>
+        <v>9621897370.438612</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1733.86381319471</v>
+        <v>9626.271125801992</v>
       </c>
       <c r="C143" t="n">
-        <v>1733863813.19471</v>
+        <v>9626271125.801992</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1734.956210349642</v>
+        <v>9630.645212397565</v>
       </c>
       <c r="C144" t="n">
-        <v>1734956210.349642</v>
+        <v>9630645212.397566</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1736.041631191176</v>
+        <v>9635.019630125023</v>
       </c>
       <c r="C145" t="n">
-        <v>1736041631.191176</v>
+        <v>9635019630.125023</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1737.120168538281</v>
+        <v>9639.394378884142</v>
       </c>
       <c r="C146" t="n">
-        <v>1737120168.538281</v>
+        <v>9639394378.884142</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1738.191913341679</v>
+        <v>9643.76945857475</v>
       </c>
       <c r="C147" t="n">
-        <v>1738191913.341679</v>
+        <v>9643769458.574751</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1739.256954734016</v>
+        <v>9648.144869096754</v>
       </c>
       <c r="C148" t="n">
-        <v>1739256954.734016</v>
+        <v>9648144869.096754</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1740.315380078363</v>
+        <v>9652.520610350122</v>
       </c>
       <c r="C149" t="n">
-        <v>1740315380.078362</v>
+        <v>9652520610.350122</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1741.367275015092</v>
+        <v>9656.896682234899</v>
       </c>
       <c r="C150" t="n">
-        <v>1741367275.015092</v>
+        <v>9656896682.2349</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1742.412723507216</v>
+        <v>9661.273084651189</v>
       </c>
       <c r="C151" t="n">
-        <v>1742412723.507216</v>
+        <v>9661273084.65119</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1743.451807884227</v>
+        <v>9665.649817499168</v>
       </c>
       <c r="C152" t="n">
-        <v>1743451807.884227</v>
+        <v>9665649817.499168</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1744.484608884515</v>
+        <v>9670.026880679079</v>
       </c>
       <c r="C153" t="n">
-        <v>1744484608.884515</v>
+        <v>9670026880.679079</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1745.511205696409</v>
+        <v>9674.404274091235</v>
       </c>
       <c r="C154" t="n">
-        <v>1745511205.696409</v>
+        <v>9674404274.091236</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1746.531675997898</v>
+        <v>9678.781997636012</v>
       </c>
       <c r="C155" t="n">
-        <v>1746531675.997898</v>
+        <v>9678781997.636011</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1747.54609599508</v>
+        <v>9683.160051213856</v>
       </c>
       <c r="C156" t="n">
-        <v>1747546095.99508</v>
+        <v>9683160051.213856</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1748.554540459395</v>
+        <v>9687.538434725284</v>
       </c>
       <c r="C157" t="n">
-        <v>1748554540.459395</v>
+        <v>9687538434.725285</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1749.557082763679</v>
+        <v>9691.917148070876</v>
       </c>
       <c r="C158" t="n">
-        <v>1749557082.763679</v>
+        <v>9691917148.070875</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1750.553794917084</v>
+        <v>9696.296191151279</v>
       </c>
       <c r="C159" t="n">
-        <v>1750553794.917084</v>
+        <v>9696296191.151279</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1751.544747598922</v>
+        <v>9700.675563867209</v>
       </c>
       <c r="C160" t="n">
-        <v>1751544747.598922</v>
+        <v>9700675563.867208</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1752.530010191445</v>
+        <v>9705.055266119451</v>
       </c>
       <c r="C161" t="n">
-        <v>1752530010.191445</v>
+        <v>9705055266.119452</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1753.509650811633</v>
+        <v>9709.435297808857</v>
       </c>
       <c r="C162" t="n">
-        <v>1753509650.811633</v>
+        <v>9709435297.808857</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1754.483736341997</v>
+        <v>9713.81565883634</v>
       </c>
       <c r="C163" t="n">
-        <v>1754483736.341996</v>
+        <v>9713815658.83634</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1755.45233246045</v>
+        <v>9718.196349102884</v>
       </c>
       <c r="C164" t="n">
-        <v>1755452332.46045</v>
+        <v>9718196349.102884</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1756.415503669283</v>
+        <v>9722.577368509545</v>
       </c>
       <c r="C165" t="n">
-        <v>1756415503.669283</v>
+        <v>9722577368.509544</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1757.373313323259</v>
+        <v>9726.958716957439</v>
       </c>
       <c r="C166" t="n">
-        <v>1757373313.323259</v>
+        <v>9726958716.957439</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1758.325823656878</v>
+        <v>9731.340394347751</v>
       </c>
       <c r="C167" t="n">
-        <v>1758325823.656878</v>
+        <v>9731340394.347752</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1759.27309581083</v>
+        <v>9735.722400581733</v>
       </c>
       <c r="C168" t="n">
-        <v>1759273095.81083</v>
+        <v>9735722400.581734</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1760.21518985767</v>
+        <v>9740.104735560702</v>
       </c>
       <c r="C169" t="n">
-        <v>1760215189.85767</v>
+        <v>9740104735.560703</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1761.152164826739</v>
+        <v>9744.487399186048</v>
       </c>
       <c r="C170" t="n">
-        <v>1761152164.826739</v>
+        <v>9744487399.186049</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1762.08407872836</v>
+        <v>9748.870391359216</v>
       </c>
       <c r="C171" t="n">
-        <v>1762084078.72836</v>
+        <v>9748870391.359217</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1763.010988577332</v>
+        <v>9753.25371198173</v>
       </c>
       <c r="C172" t="n">
-        <v>1763010988.577332</v>
+        <v>9753253711.98173</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1763.932950415753</v>
+        <v>9757.63736095517</v>
       </c>
       <c r="C173" t="n">
-        <v>1763932950.415753</v>
+        <v>9757637360.95517</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1764.850019335182</v>
+        <v>9762.02133818119</v>
       </c>
       <c r="C174" t="n">
-        <v>1764850019.335182</v>
+        <v>9762021338.18119</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1765.762249498177</v>
+        <v>9766.405643561506</v>
       </c>
       <c r="C175" t="n">
-        <v>1765762249.498178</v>
+        <v>9766405643.561506</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1766.669694159221</v>
+        <v>9770.790276997899</v>
       </c>
       <c r="C176" t="n">
-        <v>1766669694.159221</v>
+        <v>9770790276.9979</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1767.572405685058</v>
+        <v>9775.175238392223</v>
       </c>
       <c r="C177" t="n">
-        <v>1767572405.685058</v>
+        <v>9775175238.392223</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1768.470435574466</v>
+        <v>9779.560527646392</v>
       </c>
       <c r="C178" t="n">
-        <v>1768470435.574466</v>
+        <v>9779560527.646393</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1769.363834477472</v>
+        <v>9783.946144662385</v>
       </c>
       <c r="C179" t="n">
-        <v>1769363834.477472</v>
+        <v>9783946144.662384</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1770.252652214045</v>
+        <v>9788.332089342248</v>
       </c>
       <c r="C180" t="n">
-        <v>1770252652.214045</v>
+        <v>9788332089.342247</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1771.136937792265</v>
+        <v>9792.718361588099</v>
       </c>
       <c r="C181" t="n">
-        <v>1771136937.792265</v>
+        <v>9792718361.588099</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1772.016739426004</v>
+        <v>9797.104961302117</v>
       </c>
       <c r="C182" t="n">
-        <v>1772016739.426004</v>
+        <v>9797104961.302116</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1772.892104552123</v>
+        <v>9801.491888386543</v>
       </c>
       <c r="C183" t="n">
-        <v>1772892104.552123</v>
+        <v>9801491888.386543</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1773.763079847199</v>
+        <v>9805.879142743688</v>
       </c>
       <c r="C184" t="n">
-        <v>1773763079.847199</v>
+        <v>9805879142.743689</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1774.629711243814</v>
+        <v>9810.266724275931</v>
       </c>
       <c r="C185" t="n">
-        <v>1774629711.243814</v>
+        <v>9810266724.27593</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1775.492043946395</v>
+        <v>9814.654632885709</v>
       </c>
       <c r="C186" t="n">
-        <v>1775492043.946395</v>
+        <v>9814654632.88571</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1776.350122446644</v>
+        <v>9819.042868475533</v>
       </c>
       <c r="C187" t="n">
-        <v>1776350122.446644</v>
+        <v>9819042868.475533</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1777.203990538549</v>
+        <v>9823.431430947971</v>
       </c>
       <c r="C188" t="n">
-        <v>1777203990.538549</v>
+        <v>9823431430.947971</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1778.053691333011</v>
+        <v>9827.820320205663</v>
       </c>
       <c r="C189" t="n">
-        <v>1778053691.333011</v>
+        <v>9827820320.205664</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1778.899267272079</v>
+        <v>9832.209536151313</v>
       </c>
       <c r="C190" t="n">
-        <v>1778899267.272079</v>
+        <v>9832209536.151314</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1779.740760142821</v>
+        <v>9836.599078687685</v>
       </c>
       <c r="C191" t="n">
-        <v>1779740760.142821</v>
+        <v>9836599078.687685</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1780.578211090831</v>
+        <v>9840.988947717613</v>
       </c>
       <c r="C192" t="n">
-        <v>1780578211.090831</v>
+        <v>9840988947.717613</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1781.411660633391</v>
+        <v>9845.379143143997</v>
       </c>
       <c r="C193" t="n">
-        <v>1781411660.63339</v>
+        <v>9845379143.143997</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1782.241148672292</v>
+        <v>9849.7696648698</v>
       </c>
       <c r="C194" t="n">
-        <v>1782241148.672292</v>
+        <v>9849769664.869801</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1783.066714506337</v>
+        <v>9854.160512798047</v>
       </c>
       <c r="C195" t="n">
-        <v>1783066714.506337</v>
+        <v>9854160512.798048</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1783.888396843512</v>
+        <v>9858.551686831832</v>
       </c>
       <c r="C196" t="n">
-        <v>1783888396.843512</v>
+        <v>9858551686.831831</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1784.706233812866</v>
+        <v>9862.943186874312</v>
       </c>
       <c r="C197" t="n">
-        <v>1784706233.812866</v>
+        <v>9862943186.874311</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1785.520262976082</v>
+        <v>9867.335012828713</v>
       </c>
       <c r="C198" t="n">
-        <v>1785520262.976082</v>
+        <v>9867335012.828712</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1786.33052133876</v>
+        <v>9871.727164598315</v>
       </c>
       <c r="C199" t="n">
-        <v>1786330521.33876</v>
+        <v>9871727164.598314</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1787.137045361428</v>
+        <v>9876.119642086471</v>
       </c>
       <c r="C200" t="n">
-        <v>1787137045.361428</v>
+        <v>9876119642.086472</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1787.939870970268</v>
+        <v>9880.512445196598</v>
       </c>
       <c r="C201" t="n">
-        <v>1787939870.970268</v>
+        <v>9880512445.196598</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1788.739033567588</v>
+        <v>9884.90557383218</v>
       </c>
       <c r="C202" t="n">
-        <v>1788739033.567588</v>
+        <v>9884905573.83218</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1789.534568042037</v>
+        <v>9889.299027896754</v>
       </c>
       <c r="C203" t="n">
-        <v>1789534568.042037</v>
+        <v>9889299027.896753</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1790.326508778562</v>
+        <v>9893.692807293932</v>
       </c>
       <c r="C204" t="n">
-        <v>1790326508.778562</v>
+        <v>9893692807.293932</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1791.114889668136</v>
+        <v>9898.086911927388</v>
       </c>
       <c r="C205" t="n">
-        <v>1791114889.668136</v>
+        <v>9898086911.927389</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1791.899744117243</v>
+        <v>9902.481341700859</v>
       </c>
       <c r="C206" t="n">
-        <v>1791899744.117243</v>
+        <v>9902481341.700859</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1792.681105057139</v>
+        <v>9906.876096518145</v>
       </c>
       <c r="C207" t="n">
-        <v>1792681105.057139</v>
+        <v>9906876096.518145</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1793.459004952889</v>
+        <v>9911.27117628311</v>
       </c>
       <c r="C208" t="n">
-        <v>1793459004.952889</v>
+        <v>9911271176.28311</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1794.233475812195</v>
+        <v>9915.666580899686</v>
       </c>
       <c r="C209" t="n">
-        <v>1794233475.812195</v>
+        <v>9915666580.899687</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1795.004549194007</v>
+        <v>9920.062310271865</v>
       </c>
       <c r="C210" t="n">
-        <v>1795004549.194007</v>
+        <v>9920062310.271866</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1795.772256216935</v>
+        <v>9924.458364303702</v>
       </c>
       <c r="C211" t="n">
-        <v>1795772256.216935</v>
+        <v>9924458364.303701</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1796.536627567472</v>
+        <v>9928.854742899321</v>
       </c>
       <c r="C212" t="n">
-        <v>1796536627.567472</v>
+        <v>9928854742.899321</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1797.297693508006</v>
+        <v>9933.251445962904</v>
       </c>
       <c r="C213" t="n">
-        <v>1797297693.508006</v>
+        <v>9933251445.962904</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1798.055483884669</v>
+        <v>9937.6484733987</v>
       </c>
       <c r="C214" t="n">
-        <v>1798055483.884669</v>
+        <v>9937648473.398701</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1798.810028134986</v>
+        <v>9942.045825111016</v>
       </c>
       <c r="C215" t="n">
-        <v>1798810028.134986</v>
+        <v>9942045825.111015</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1799.561355295359</v>
+        <v>9946.443501004233</v>
       </c>
       <c r="C216" t="n">
-        <v>1799561355.295359</v>
+        <v>9946443501.004232</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1800.309494008374</v>
+        <v>9950.841500982786</v>
       </c>
       <c r="C217" t="n">
-        <v>1800309494.008374</v>
+        <v>9950841500.982786</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1801.054472529948</v>
+        <v>9955.239824951181</v>
       </c>
       <c r="C218" t="n">
-        <v>1801054472.529948</v>
+        <v>9955239824.951181</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1801.796318736306</v>
+        <v>9959.638472813978</v>
       </c>
       <c r="C219" t="n">
-        <v>1801796318.736306</v>
+        <v>9959638472.813978</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1802.535060130806</v>
+        <v>9964.037444475805</v>
       </c>
       <c r="C220" t="n">
-        <v>1802535060.130806</v>
+        <v>9964037444.475805</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1803.270723850609</v>
+        <v>9968.436739841358</v>
       </c>
       <c r="C221" t="n">
-        <v>1803270723.850609</v>
+        <v>9968436739.841358</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1804.003336673201</v>
+        <v>9972.836358815388</v>
       </c>
       <c r="C222" t="n">
-        <v>1804003336.673201</v>
+        <v>9972836358.815388</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1804.732925022766</v>
+        <v>9977.236301302713</v>
       </c>
       <c r="C223" t="n">
-        <v>1804732925.022767</v>
+        <v>9977236301.302713</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1805.459514976426</v>
+        <v>9981.636567208214</v>
       </c>
       <c r="C224" t="n">
-        <v>1805459514.976426</v>
+        <v>9981636567.208214</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1806.183132270332</v>
+        <v>9986.037156436834</v>
       </c>
       <c r="C225" t="n">
-        <v>1806183132.270332</v>
+        <v>9986037156.436834</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1806.90380230563</v>
+        <v>9990.438068893583</v>
       </c>
       <c r="C226" t="n">
-        <v>1806903802.30563</v>
+        <v>9990438068.893583</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1807.621550154295</v>
+        <v>9994.839304483523</v>
       </c>
       <c r="C227" t="n">
-        <v>1807621550.154295</v>
+        <v>9994839304.483522</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1808.336400564835</v>
+        <v>9999.240863111791</v>
       </c>
       <c r="C228" t="n">
-        <v>1808336400.564835</v>
+        <v>9999240863.11179</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1809.048377967872</v>
+        <v>10003.64274468358</v>
       </c>
       <c r="C229" t="n">
-        <v>1809048377.967872</v>
+        <v>10003642744.68358</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1809.757506481608</v>
+        <v>10008.04494910414</v>
       </c>
       <c r="C230" t="n">
-        <v>1809757506.481608</v>
+        <v>10008044949.10414</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1810.463809917166</v>
+        <v>10012.44747627881</v>
       </c>
       <c r="C231" t="n">
-        <v>1810463809.917166</v>
+        <v>10012447476.27881</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1811.16731178382</v>
+        <v>10016.85032611295</v>
       </c>
       <c r="C232" t="n">
-        <v>1811167311.783819</v>
+        <v>10016850326.11295</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1811.868035294114</v>
+        <v>10021.25349851201</v>
       </c>
       <c r="C233" t="n">
-        <v>1811868035.294114</v>
+        <v>10021253498.51201</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1812.566003368878</v>
+        <v>10025.65699338151</v>
       </c>
       <c r="C234" t="n">
-        <v>1812566003.368878</v>
+        <v>10025656993.38151</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1813.26123864212</v>
+        <v>10030.060810627</v>
       </c>
       <c r="C235" t="n">
-        <v>1813261238.64212</v>
+        <v>10030060810.627</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1813.953763465841</v>
+        <v>10034.46495015412</v>
       </c>
       <c r="C236" t="n">
-        <v>1813953763.465841</v>
+        <v>10034464950.15413</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1814.643599914725</v>
+        <v>10038.86941186857</v>
       </c>
       <c r="C237" t="n">
-        <v>1814643599.914725</v>
+        <v>10038869411.86857</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1815.330769790751</v>
+        <v>10043.27419567609</v>
       </c>
       <c r="C238" t="n">
-        <v>1815330769.790751</v>
+        <v>10043274195.67609</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1816.015294627692</v>
+        <v>10047.67930148252</v>
       </c>
       <c r="C239" t="n">
-        <v>1816015294.627692</v>
+        <v>10047679301.48252</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1816.697195695535</v>
+        <v>10052.08472919371</v>
       </c>
       <c r="C240" t="n">
-        <v>1816697195.695535</v>
+        <v>10052084729.19371</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1817.376494004802</v>
+        <v>10056.49047871562</v>
       </c>
       <c r="C241" t="n">
-        <v>1817376494.004802</v>
+        <v>10056490478.71562</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1818.053210310785</v>
+        <v>10060.89654995426</v>
       </c>
       <c r="C242" t="n">
-        <v>1818053210.310785</v>
+        <v>10060896549.95426</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1818.727365117694</v>
+        <v>10065.30294281567</v>
       </c>
       <c r="C243" t="n">
-        <v>1818727365.117694</v>
+        <v>10065302942.81567</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1819.398978682723</v>
+        <v>10069.70965720599</v>
       </c>
       <c r="C244" t="n">
-        <v>1819398978.682723</v>
+        <v>10069709657.20599</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1820.068071020029</v>
+        <v>10074.11669303142</v>
       </c>
       <c r="C245" t="n">
-        <v>1820068071.02003</v>
+        <v>10074116693.03142</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1820.734661904636</v>
+        <v>10078.52405019819</v>
       </c>
       <c r="C246" t="n">
-        <v>1820734661.904636</v>
+        <v>10078524050.19819</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1821.398770876255</v>
+        <v>10082.93172861262</v>
       </c>
       <c r="C247" t="n">
-        <v>1821398770.876255</v>
+        <v>10082931728.61262</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1822.060417243033</v>
+        <v>10087.33972818108</v>
       </c>
       <c r="C248" t="n">
-        <v>1822060417.243033</v>
+        <v>10087339728.18108</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1822.719620085225</v>
+        <v>10091.74804881</v>
       </c>
       <c r="C249" t="n">
-        <v>1822719620.085225</v>
+        <v>10091748048.81</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1823.376398258795</v>
+        <v>10096.15669040589</v>
       </c>
       <c r="C250" t="n">
-        <v>1823376398.258795</v>
+        <v>10096156690.40589</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1824.030770398938</v>
+        <v>10100.56565287529</v>
       </c>
       <c r="C251" t="n">
-        <v>1824030770.398938</v>
+        <v>10100565652.87529</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1824.682754923547</v>
+        <v>10104.97493612482</v>
       </c>
       <c r="C252" t="n">
-        <v>1824682754.923548</v>
+        <v>10104974936.12482</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1826.302389363254</v>
+        <v>10115.99954704948</v>
       </c>
       <c r="C253" t="n">
-        <v>1826302389.363254</v>
+        <v>10115999547.04948</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1827.907493150106</v>
+        <v>10127.02616081041</v>
       </c>
       <c r="C254" t="n">
-        <v>1827907493.150106</v>
+        <v>10127026160.81041</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1829.498337114841</v>
+        <v>10138.05477595351</v>
       </c>
       <c r="C255" t="n">
-        <v>1829498337.114841</v>
+        <v>10138054775.95351</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1831.075184472712</v>
+        <v>10149.08539102707</v>
       </c>
       <c r="C256" t="n">
-        <v>1831075184.472712</v>
+        <v>10149085391.02707</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1832.638291108441</v>
+        <v>10160.11800458172</v>
       </c>
       <c r="C257" t="n">
-        <v>1832638291.108441</v>
+        <v>10160118004.58172</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1834.187905847919</v>
+        <v>10171.15261517046</v>
       </c>
       <c r="C258" t="n">
-        <v>1834187905.847919</v>
+        <v>10171152615.17046</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1835.724270717369</v>
+        <v>10182.18922134867</v>
       </c>
       <c r="C259" t="n">
-        <v>1835724270.717369</v>
+        <v>10182189221.34867</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1837.247621190682</v>
+        <v>10193.22782167405</v>
       </c>
       <c r="C260" t="n">
-        <v>1837247621.190682</v>
+        <v>10193227821.67405</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1838.758186425553</v>
+        <v>10204.26841470664</v>
       </c>
       <c r="C261" t="n">
-        <v>1838758186.425553</v>
+        <v>10204268414.70664</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1840.256189489031</v>
+        <v>10215.31099900884</v>
       </c>
       <c r="C262" t="n">
-        <v>1840256189.489031</v>
+        <v>10215310999.00884</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1841.741847573045</v>
+        <v>10226.35557314538</v>
       </c>
       <c r="C263" t="n">
-        <v>1841741847.573045</v>
+        <v>10226355573.14538</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1843.215372200444</v>
+        <v>10237.40213568329</v>
       </c>
       <c r="C264" t="n">
-        <v>1843215372.200444</v>
+        <v>10237402135.68329</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1844.676969422034</v>
+        <v>10248.45068519194</v>
       </c>
       <c r="C265" t="n">
-        <v>1844676969.422034</v>
+        <v>10248450685.19194</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1846.126840005104</v>
+        <v>10259.50122024302</v>
       </c>
       <c r="C266" t="n">
-        <v>1846126840.005104</v>
+        <v>10259501220.24302</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1847.565179613856</v>
+        <v>10270.55373941051</v>
       </c>
       <c r="C267" t="n">
-        <v>1847565179.613856</v>
+        <v>10270553739.41051</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1848.992178982171</v>
+        <v>10281.6082412707</v>
       </c>
       <c r="C268" t="n">
-        <v>1848992178.982171</v>
+        <v>10281608241.2707</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1850.408024079092</v>
+        <v>10292.66472440219</v>
       </c>
       <c r="C269" t="n">
-        <v>1850408024.079092</v>
+        <v>10292664724.40219</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1851.812896267392</v>
+        <v>10303.72318738584</v>
       </c>
       <c r="C270" t="n">
-        <v>1851812896.267392</v>
+        <v>10303723187.38584</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1853.206972455569</v>
+        <v>10314.78362880482</v>
       </c>
       <c r="C271" t="n">
-        <v>1853206972.455569</v>
+        <v>10314783628.80482</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1854.5904252436</v>
+        <v>10325.84604724457</v>
       </c>
       <c r="C272" t="n">
-        <v>1854590425.2436</v>
+        <v>10325846047.24457</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1855.963423062751</v>
+        <v>10336.91044129282</v>
       </c>
       <c r="C273" t="n">
-        <v>1855963423.062751</v>
+        <v>10336910441.29282</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1857.326130309741</v>
+        <v>10347.97680953953</v>
       </c>
       <c r="C274" t="n">
-        <v>1857326130.309741</v>
+        <v>10347976809.53953</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1858.678707475529</v>
+        <v>10359.04515057697</v>
       </c>
       <c r="C275" t="n">
-        <v>1858678707.475529</v>
+        <v>10359045150.57697</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1860.021311268972</v>
+        <v>10370.11546299962</v>
       </c>
       <c r="C276" t="n">
-        <v>1860021311.268972</v>
+        <v>10370115462.99962</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1861.35409473562</v>
+        <v>10381.18774540426</v>
       </c>
       <c r="C277" t="n">
-        <v>1861354094.73562</v>
+        <v>10381187745.40425</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1862.677207371848</v>
+        <v>10392.26199638986</v>
       </c>
       <c r="C278" t="n">
-        <v>1862677207.371848</v>
+        <v>10392261996.38986</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1863.990795234573</v>
+        <v>10403.33821455768</v>
       </c>
       <c r="C279" t="n">
-        <v>1863990795.234573</v>
+        <v>10403338214.55768</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1865.295001046732</v>
+        <v>10414.41639851118</v>
       </c>
       <c r="C280" t="n">
-        <v>1865295001.046732</v>
+        <v>10414416398.51118</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1866.589964298738</v>
+        <v>10425.49654685607</v>
       </c>
       <c r="C281" t="n">
-        <v>1866589964.298738</v>
+        <v>10425496546.85607</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1867.875821346089</v>
+        <v>10436.57865820028</v>
       </c>
       <c r="C282" t="n">
-        <v>1867875821.346089</v>
+        <v>10436578658.20028</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1869.152705503296</v>
+        <v>10447.66273115393</v>
       </c>
       <c r="C283" t="n">
-        <v>1869152705.503296</v>
+        <v>10447662731.15393</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1870.420747134319</v>
+        <v>10458.7487643294</v>
       </c>
       <c r="C284" t="n">
-        <v>1870420747.134319</v>
+        <v>10458748764.3294</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1871.680073739632</v>
+        <v>10469.83675634124</v>
       </c>
       <c r="C285" t="n">
-        <v>1871680073.739632</v>
+        <v>10469836756.34124</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1872.930810040106</v>
+        <v>10480.92670580622</v>
       </c>
       <c r="C286" t="n">
-        <v>1872930810.040106</v>
+        <v>10480926705.80622</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1874.173078057812</v>
+        <v>10492.01861134328</v>
       </c>
       <c r="C287" t="n">
-        <v>1874173078.057812</v>
+        <v>10492018611.34328</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1875.406997193911</v>
+        <v>10503.11247157359</v>
       </c>
       <c r="C288" t="n">
-        <v>1875406997.193911</v>
+        <v>10503112471.57359</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1876.632684303727</v>
+        <v>10514.20828512048</v>
       </c>
       <c r="C289" t="n">
-        <v>1876632684.303727</v>
+        <v>10514208285.12048</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1877.850253769155</v>
+        <v>10525.30605060945</v>
       </c>
       <c r="C290" t="n">
-        <v>1877850253.769156</v>
+        <v>10525306050.60945</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1879.059817568489</v>
+        <v>10536.4057666682</v>
       </c>
       <c r="C291" t="n">
-        <v>1879059817.568489</v>
+        <v>10536405766.6682</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1880.261485343796</v>
+        <v>10547.50743192659</v>
       </c>
       <c r="C292" t="n">
-        <v>1880261485.343796</v>
+        <v>10547507431.92659</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1881.455364465942</v>
+        <v>10558.61104501663</v>
       </c>
       <c r="C293" t="n">
-        <v>1881455364.465942</v>
+        <v>10558611045.01663</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1882.641560097351</v>
+        <v>10569.7166045725</v>
       </c>
       <c r="C294" t="n">
-        <v>1882641560.097351</v>
+        <v>10569716604.5725</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1883.820175252609</v>
+        <v>10580.82410923053</v>
       </c>
       <c r="C295" t="n">
-        <v>1883820175.252609</v>
+        <v>10580824109.23053</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1884.991310856991</v>
+        <v>10591.93355762921</v>
       </c>
       <c r="C296" t="n">
-        <v>1884991310.856991</v>
+        <v>10591933557.62921</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1886.155065802998</v>
+        <v>10603.04494840915</v>
       </c>
       <c r="C297" t="n">
-        <v>1886155065.802998</v>
+        <v>10603044948.40915</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1887.311537004994</v>
+        <v>10614.15828021312</v>
       </c>
       <c r="C298" t="n">
-        <v>1887311537.004994</v>
+        <v>10614158280.21312</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1888.460819451999</v>
+        <v>10625.273551686</v>
       </c>
       <c r="C299" t="n">
-        <v>1888460819.451999</v>
+        <v>10625273551.686</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1889.603006258734</v>
+        <v>10636.39076147481</v>
       </c>
       <c r="C300" t="n">
-        <v>1889603006.258734</v>
+        <v>10636390761.47481</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1890.738188714976</v>
+        <v>10647.5099082287</v>
       </c>
       <c r="C301" t="n">
-        <v>1890738188.714976</v>
+        <v>10647509908.2287</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1891.866456333292</v>
+        <v>10658.63099059891</v>
       </c>
       <c r="C302" t="n">
-        <v>1891866456.333292</v>
+        <v>10658630990.59891</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1892.987896895211</v>
+        <v>10669.75400723881</v>
       </c>
       <c r="C303" t="n">
-        <v>1892987896.895211</v>
+        <v>10669754007.23881</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1894.102596495909</v>
+        <v>10680.87895680388</v>
       </c>
       <c r="C304" t="n">
-        <v>1894102596.495909</v>
+        <v>10680878956.80388</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1895.210639587447</v>
+        <v>10692.00583795169</v>
       </c>
       <c r="C305" t="n">
-        <v>1895210639.587447</v>
+        <v>10692005837.95169</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1896.312109020627</v>
+        <v>10703.13464934192</v>
       </c>
       <c r="C306" t="n">
-        <v>1896312109.020627</v>
+        <v>10703134649.34192</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1897.407086085523</v>
+        <v>10714.26538963631</v>
       </c>
       <c r="C307" t="n">
-        <v>1897407086.085523</v>
+        <v>10714265389.63631</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1898.495650550725</v>
+        <v>10725.39805749872</v>
       </c>
       <c r="C308" t="n">
-        <v>1898495650.550725</v>
+        <v>10725398057.49872</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1899.577880701358</v>
+        <v>10736.53265159508</v>
       </c>
       <c r="C309" t="n">
-        <v>1899577880.701359</v>
+        <v>10736532651.59508</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1900.653853375913</v>
+        <v>10747.66917059338</v>
       </c>
       <c r="C310" t="n">
-        <v>1900653853.375913</v>
+        <v>10747669170.59338</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1901.723644001933</v>
+        <v>10758.8076131637</v>
       </c>
       <c r="C311" t="n">
-        <v>1901723644.001933</v>
+        <v>10758807613.1637</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1902.787326630609</v>
+        <v>10769.94797797819</v>
       </c>
       <c r="C312" t="n">
-        <v>1902787326.63061</v>
+        <v>10769947977.97819</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1903.844973970311</v>
+        <v>10781.09026371103</v>
       </c>
       <c r="C313" t="n">
-        <v>1903844973.970311</v>
+        <v>10781090263.71103</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1904.896657419101</v>
+        <v>10792.2344690385</v>
       </c>
       <c r="C314" t="n">
-        <v>1904896657.419101</v>
+        <v>10792234469.0385</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1905.942447096264</v>
+        <v>10803.38059263888</v>
       </c>
       <c r="C315" t="n">
-        <v>1905942447.096264</v>
+        <v>10803380592.63888</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1906.982411872893</v>
+        <v>10814.52863319253</v>
       </c>
       <c r="C316" t="n">
-        <v>1906982411.872893</v>
+        <v>10814528633.19253</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1908.016619401559</v>
+        <v>10825.67858938185</v>
       </c>
       <c r="C317" t="n">
-        <v>1908016619.401559</v>
+        <v>10825678589.38186</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1909.045136145103</v>
+        <v>10836.83045989127</v>
       </c>
       <c r="C318" t="n">
-        <v>1909045136.145103</v>
+        <v>10836830459.89127</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1910.068027404576</v>
+        <v>10847.98424340724</v>
       </c>
       <c r="C319" t="n">
-        <v>1910068027.404577</v>
+        <v>10847984243.40724</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1911.085357346364</v>
+        <v>10859.13993861826</v>
       </c>
       <c r="C320" t="n">
-        <v>1911085357.346364</v>
+        <v>10859139938.61826</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1912.097189028516</v>
+        <v>10870.29754421482</v>
       </c>
       <c r="C321" t="n">
-        <v>1912097189.028516</v>
+        <v>10870297544.21482</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1913.10358442632</v>
+        <v>10881.45705888945</v>
       </c>
       <c r="C322" t="n">
-        <v>1913103584.42632</v>
+        <v>10881457058.88945</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1914.104604457128</v>
+        <v>10892.61848133669</v>
       </c>
       <c r="C323" t="n">
-        <v>1914104604.457128</v>
+        <v>10892618481.33669</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1915.100309004484</v>
+        <v>10903.78181025309</v>
       </c>
       <c r="C324" t="n">
-        <v>1915100309.004484</v>
+        <v>10903781810.25309</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1916.090756941558</v>
+        <v>10914.94704433717</v>
       </c>
       <c r="C325" t="n">
-        <v>1916090756.941558</v>
+        <v>10914947044.33717</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1917.076006153916</v>
+        <v>10926.1141822895</v>
       </c>
       <c r="C326" t="n">
-        <v>1917076006.153916</v>
+        <v>10926114182.2895</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1918.056113561654</v>
+        <v>10937.2832228126</v>
       </c>
       <c r="C327" t="n">
-        <v>1918056113.561654</v>
+        <v>10937283222.8126</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1919.031135140908</v>
+        <v>10948.45416461098</v>
       </c>
       <c r="C328" t="n">
-        <v>1919031135.140908</v>
+        <v>10948454164.61098</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1920.001125944769</v>
+        <v>10959.62700639117</v>
       </c>
       <c r="C329" t="n">
-        <v>1920001125.944768</v>
+        <v>10959627006.39117</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1920.966140123616</v>
+        <v>10970.80174686164</v>
       </c>
       <c r="C330" t="n">
-        <v>1920966140.123616</v>
+        <v>10970801746.86164</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1921.926230944895</v>
+        <v>10981.97838473284</v>
       </c>
       <c r="C331" t="n">
-        <v>1921926230.944895</v>
+        <v>10981978384.73284</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1922.881450812351</v>
+        <v>10993.15691871722</v>
       </c>
       <c r="C332" t="n">
-        <v>1922881450.812351</v>
+        <v>10993156918.71722</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1923.83185128474</v>
+        <v>11004.33734752914</v>
       </c>
       <c r="C333" t="n">
-        <v>1923831851.28474</v>
+        <v>11004337347.52914</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1924.777483094035</v>
+        <v>11015.51966988498</v>
       </c>
       <c r="C334" t="n">
-        <v>1924777483.094035</v>
+        <v>11015519669.88498</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1925.718396163141</v>
+        <v>11026.70388450302</v>
       </c>
       <c r="C335" t="n">
-        <v>1925718396.163141</v>
+        <v>11026703884.50302</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1926.654639623135</v>
+        <v>11037.88999010353</v>
       </c>
       <c r="C336" t="n">
-        <v>1926654639.623135</v>
+        <v>11037889990.10353</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1927.586261830051</v>
+        <v>11049.0779854087</v>
       </c>
       <c r="C337" t="n">
-        <v>1927586261.830051</v>
+        <v>11049077985.4087</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1928.513310381216</v>
+        <v>11060.26786914268</v>
       </c>
       <c r="C338" t="n">
-        <v>1928513310.381216</v>
+        <v>11060267869.14268</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1929.43583213116</v>
+        <v>11071.45964003155</v>
       </c>
       <c r="C339" t="n">
-        <v>1929435832.13116</v>
+        <v>11071459640.03155</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1930.353873207104</v>
+        <v>11082.65329680332</v>
       </c>
       <c r="C340" t="n">
-        <v>1930353873.207104</v>
+        <v>11082653296.80332</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1931.267479024054</v>
+        <v>11093.84883818792</v>
       </c>
       <c r="C341" t="n">
-        <v>1931267479.024054</v>
+        <v>11093848838.18792</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1932.176694299489</v>
+        <v>11105.04626291722</v>
       </c>
       <c r="C342" t="n">
-        <v>1932176694.299489</v>
+        <v>11105046262.91722</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1933.081563067691</v>
+        <v>11116.24556972499</v>
       </c>
       <c r="C343" t="n">
-        <v>1933081563.067691</v>
+        <v>11116245569.72499</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1933.982128693683</v>
+        <v>11127.44675734693</v>
       </c>
       <c r="C344" t="n">
-        <v>1933982128.693683</v>
+        <v>11127446757.34693</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1934.878433886834</v>
+        <v>11138.64982452064</v>
       </c>
       <c r="C345" t="n">
-        <v>1934878433.886834</v>
+        <v>11138649824.52064</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1935.770520714105</v>
+        <v>11149.85476998563</v>
       </c>
       <c r="C346" t="n">
-        <v>1935770520.714105</v>
+        <v>11149854769.98563</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1936.658430612965</v>
+        <v>11161.06159248331</v>
       </c>
       <c r="C347" t="n">
-        <v>1936658430.612965</v>
+        <v>11161061592.48331</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1937.542204403981</v>
+        <v>11172.27029075697</v>
       </c>
       <c r="C348" t="n">
-        <v>1937542204.403981</v>
+        <v>11172270290.75698</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1938.421882303098</v>
+        <v>11183.48086355183</v>
       </c>
       <c r="C349" t="n">
-        <v>1938421882.303098</v>
+        <v>11183480863.55183</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1939.297503933607</v>
+        <v>11194.69330961494</v>
       </c>
       <c r="C350" t="n">
-        <v>1939297503.933607</v>
+        <v>11194693309.61494</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1940.169108337822</v>
+        <v>11205.90762769529</v>
       </c>
       <c r="C351" t="n">
-        <v>1940169108.337822</v>
+        <v>11205907627.69529</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>1941.036733988466</v>
+        <v>11217.12381654371</v>
       </c>
       <c r="C352" t="n">
-        <v>1941036733.988466</v>
+        <v>11217123816.54371</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>1941.900418799784</v>
+        <v>11228.34187491293</v>
       </c>
       <c r="C353" t="n">
-        <v>1941900418.799784</v>
+        <v>11228341874.91293</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>1942.760200138376</v>
+        <v>11239.56180155752</v>
       </c>
       <c r="C354" t="n">
-        <v>1942760200.138376</v>
+        <v>11239561801.55752</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>1943.616114833774</v>
+        <v>11250.78359523394</v>
       </c>
       <c r="C355" t="n">
-        <v>1943616114.833774</v>
+        <v>11250783595.23394</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>1944.468199188768</v>
+        <v>11262.00725470051</v>
       </c>
       <c r="C356" t="n">
-        <v>1944468199.188768</v>
+        <v>11262007254.70051</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>1945.316488989467</v>
+        <v>11273.23277871739</v>
       </c>
       <c r="C357" t="n">
-        <v>1945316488.989467</v>
+        <v>11273232778.71739</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>1946.161019515142</v>
+        <v>11284.4601660466</v>
       </c>
       <c r="C358" t="n">
-        <v>1946161019.515142</v>
+        <v>11284460166.0466</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>1947.001825547817</v>
+        <v>11295.68941545202</v>
       </c>
       <c r="C359" t="n">
-        <v>1947001825.547817</v>
+        <v>11295689415.45202</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>1947.838941381643</v>
+        <v>11306.92052569935</v>
       </c>
       <c r="C360" t="n">
-        <v>1947838941.381643</v>
+        <v>11306920525.69935</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>1948.672400832047</v>
+        <v>11318.15349555614</v>
       </c>
       <c r="C361" t="n">
-        <v>1948672400.832047</v>
+        <v>11318153495.55614</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>1949.502237244667</v>
+        <v>11329.38832379179</v>
       </c>
       <c r="C362" t="n">
-        <v>1949502237.244668</v>
+        <v>11329388323.79179</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>1950.328483504082</v>
+        <v>11340.62500917751</v>
       </c>
       <c r="C363" t="n">
-        <v>1950328483.504082</v>
+        <v>11340625009.17751</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>1951.151172042333</v>
+        <v>11351.86355048635</v>
       </c>
       <c r="C364" t="n">
-        <v>1951151172.042333</v>
+        <v>11351863550.48635</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>1951.970334847253</v>
+        <v>11363.10394649317</v>
       </c>
       <c r="C365" t="n">
-        <v>1951970334.847253</v>
+        <v>11363103946.49317</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>1952.786003470602</v>
+        <v>11374.34619597467</v>
       </c>
       <c r="C366" t="n">
-        <v>1952786003.470602</v>
+        <v>11374346195.97466</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>1953.598209036017</v>
+        <v>11385.59029770932</v>
       </c>
       <c r="C367" t="n">
-        <v>1953598209.036017</v>
+        <v>11385590297.70932</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>1954.406982246783</v>
+        <v>11396.83625047746</v>
       </c>
       <c r="C368" t="n">
-        <v>1954406982.246783</v>
+        <v>11396836250.47746</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>1955.212353393421</v>
+        <v>11408.08405306118</v>
       </c>
       <c r="C369" t="n">
-        <v>1955212353.393421</v>
+        <v>11408084053.06118</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>1956.014352361113</v>
+        <v>11419.33370424441</v>
       </c>
       <c r="C370" t="n">
-        <v>1956014352.361113</v>
+        <v>11419333704.24442</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>1956.813008636954</v>
+        <v>11430.58520281287</v>
       </c>
       <c r="C371" t="n">
-        <v>1956813008.636954</v>
+        <v>11430585202.81287</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>1957.608351317045</v>
+        <v>11441.83854755404</v>
       </c>
       <c r="C372" t="n">
-        <v>1957608351.317045</v>
+        <v>11441838547.55404</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>1958.400409113427</v>
+        <v>11453.09373725724</v>
       </c>
       <c r="C373" t="n">
-        <v>1958400409.113427</v>
+        <v>11453093737.25724</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>1959.189210360864</v>
+        <v>11464.35077071355</v>
       </c>
       <c r="C374" t="n">
-        <v>1959189210.360864</v>
+        <v>11464350770.71355</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>1959.974783023465</v>
+        <v>11475.60964671581</v>
       </c>
       <c r="C375" t="n">
-        <v>1959974783.023465</v>
+        <v>11475609646.71581</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>1960.757154701181</v>
+        <v>11486.87036405868</v>
       </c>
       <c r="C376" t="n">
-        <v>1960757154.701181</v>
+        <v>11486870364.05868</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>1961.53635263614</v>
+        <v>11498.13292153855</v>
       </c>
       <c r="C377" t="n">
-        <v>1961536352.63614</v>
+        <v>11498132921.53855</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>1962.312403718853</v>
+        <v>11509.39731795362</v>
       </c>
       <c r="C378" t="n">
-        <v>1962312403.718853</v>
+        <v>11509397317.95362</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>1963.08533449429</v>
+        <v>11520.66355210382</v>
       </c>
       <c r="C379" t="n">
-        <v>1963085334.49429</v>
+        <v>11520663552.10382</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>1963.85517116781</v>
+        <v>11531.93162279087</v>
       </c>
       <c r="C380" t="n">
-        <v>1963855171.16781</v>
+        <v>11531931622.79087</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>1964.621939610983</v>
+        <v>11543.20152881822</v>
       </c>
       <c r="C381" t="n">
-        <v>1964621939.610983</v>
+        <v>11543201528.81822</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>1965.385665367272</v>
+        <v>11554.47326899108</v>
       </c>
       <c r="C382" t="n">
-        <v>1965385665.367272</v>
+        <v>11554473268.99108</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>1966.146373657597</v>
+        <v>11565.74684211642</v>
       </c>
       <c r="C383" t="n">
-        <v>1966146373.657598</v>
+        <v>11565746842.11642</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>1966.904089385792</v>
+        <v>11577.02224700295</v>
       </c>
       <c r="C384" t="n">
-        <v>1966904089.385792</v>
+        <v>11577022247.00295</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>1967.658837143929</v>
+        <v>11588.29948246111</v>
       </c>
       <c r="C385" t="n">
-        <v>1967658837.143929</v>
+        <v>11588299482.46111</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>1968.410641217543</v>
+        <v>11599.57854730309</v>
       </c>
       <c r="C386" t="n">
-        <v>1968410641.217543</v>
+        <v>11599578547.30309</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>1969.159525590745</v>
+        <v>11610.8594403428</v>
       </c>
       <c r="C387" t="n">
-        <v>1969159525.590745</v>
+        <v>11610859440.3428</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>1969.905513951227</v>
+        <v>11622.1421603959</v>
       </c>
       <c r="C388" t="n">
-        <v>1969905513.951227</v>
+        <v>11622142160.3959</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>1970.648629695159</v>
+        <v>11633.42670627975</v>
       </c>
       <c r="C389" t="n">
-        <v>1970648629.695159</v>
+        <v>11633426706.27975</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>1971.388895931995</v>
+        <v>11644.71307681344</v>
       </c>
       <c r="C390" t="n">
-        <v>1971388895.931995</v>
+        <v>11644713076.81344</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>1972.126335489168</v>
+        <v>11656.00127081779</v>
       </c>
       <c r="C391" t="n">
-        <v>1972126335.489168</v>
+        <v>11656001270.81779</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>1972.860970916701</v>
+        <v>11667.29128711531</v>
       </c>
       <c r="C392" t="n">
-        <v>1972860970.916701</v>
+        <v>11667291287.11531</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>1973.592824491712</v>
+        <v>11678.58312453024</v>
       </c>
       <c r="C393" t="n">
-        <v>1973592824.491712</v>
+        <v>11678583124.53024</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>1974.321918222836</v>
+        <v>11689.87678188852</v>
       </c>
       <c r="C394" t="n">
-        <v>1974321918.222836</v>
+        <v>11689876781.88852</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>1975.048273854557</v>
+        <v>11701.17225801778</v>
       </c>
       <c r="C395" t="n">
-        <v>1975048273.854557</v>
+        <v>11701172258.01778</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>1975.771912871442</v>
+        <v>11712.46955174737</v>
       </c>
       <c r="C396" t="n">
-        <v>1975771912.871442</v>
+        <v>11712469551.74737</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>1976.492856502306</v>
+        <v>11723.76866190831</v>
       </c>
       <c r="C397" t="n">
-        <v>1976492856.502306</v>
+        <v>11723768661.90831</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>1977.211125724283</v>
+        <v>11735.06958733332</v>
       </c>
       <c r="C398" t="n">
-        <v>1977211125.724283</v>
+        <v>11735069587.33332</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>1977.926741266818</v>
+        <v>11746.37232685682</v>
       </c>
       <c r="C399" t="n">
-        <v>1977926741.266818</v>
+        <v>11746372326.85682</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>1978.639723615582</v>
+        <v>11757.67687931488</v>
       </c>
       <c r="C400" t="n">
-        <v>1978639723.615582</v>
+        <v>11757676879.31488</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>1979.350093016306</v>
+        <v>11768.98324354529</v>
       </c>
       <c r="C401" t="n">
-        <v>1979350093.016306</v>
+        <v>11768983243.54529</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>1980.057869478544</v>
+        <v>11780.29141838748</v>
       </c>
       <c r="C402" t="n">
-        <v>1980057869.478544</v>
+        <v>11780291418.38748</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>1980.763072779356</v>
+        <v>11791.60140268258</v>
       </c>
       <c r="C403" t="n">
-        <v>1980763072.779356</v>
+        <v>11791601402.68258</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>1981.465722466931</v>
+        <v>11802.91319527336</v>
       </c>
       <c r="C404" t="n">
-        <v>1981465722.466931</v>
+        <v>11802913195.27336</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>1982.165837864121</v>
+        <v>11814.22679500426</v>
       </c>
       <c r="C405" t="n">
-        <v>1982165837.864121</v>
+        <v>11814226795.00426</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>1982.863438071925</v>
+        <v>11825.54220072141</v>
       </c>
       <c r="C406" t="n">
-        <v>1982863438.071925</v>
+        <v>11825542200.72141</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>1983.558541972896</v>
+        <v>11836.85941127256</v>
       </c>
       <c r="C407" t="n">
-        <v>1983558541.972896</v>
+        <v>11836859411.27256</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>1984.25116823448</v>
+        <v>11848.17842550713</v>
       </c>
       <c r="C408" t="n">
-        <v>1984251168.23448</v>
+        <v>11848178425.50713</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>1984.941335312305</v>
+        <v>11859.49924227618</v>
       </c>
       <c r="C409" t="n">
-        <v>1984941335.312304</v>
+        <v>11859499242.27617</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>1985.629061453385</v>
+        <v>11870.82186043242</v>
       </c>
       <c r="C410" t="n">
-        <v>1985629061.453385</v>
+        <v>11870821860.43242</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>1986.314364699286</v>
+        <v>11882.14627883021</v>
       </c>
       <c r="C411" t="n">
-        <v>1986314364.699286</v>
+        <v>11882146278.83021</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>1986.997262889221</v>
+        <v>11893.47249632553</v>
       </c>
       <c r="C412" t="n">
-        <v>1986997262.889221</v>
+        <v>11893472496.32553</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>1987.677773663081</v>
+        <v>11904.80051177602</v>
       </c>
       <c r="C413" t="n">
-        <v>1987677773.663081</v>
+        <v>11904800511.77602</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>1988.355914464422</v>
+        <v>11916.13032404093</v>
       </c>
       <c r="C414" t="n">
-        <v>1988355914.464422</v>
+        <v>11916130324.04093</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>1989.031702543387</v>
+        <v>11927.46193198113</v>
       </c>
       <c r="C415" t="n">
-        <v>1989031702.543387</v>
+        <v>11927461931.98113</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>1989.705154959577</v>
+        <v>11938.79533445915</v>
       </c>
       <c r="C416" t="n">
-        <v>1989705154.959577</v>
+        <v>11938795334.45915</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>1990.376288584871</v>
+        <v>11950.13053033909</v>
       </c>
       <c r="C417" t="n">
-        <v>1990376288.584871</v>
+        <v>11950130530.33909</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>1991.045120106184</v>
+        <v>11961.46751848672</v>
       </c>
       <c r="C418" t="n">
-        <v>1991045120.106184</v>
+        <v>11961467518.48672</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>1991.711666028187</v>
+        <v>11972.80629776937</v>
       </c>
       <c r="C419" t="n">
-        <v>1991711666.028187</v>
+        <v>11972806297.76937</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>1992.37594267597</v>
+        <v>11984.14686705602</v>
       </c>
       <c r="C420" t="n">
-        <v>1992375942.67597</v>
+        <v>11984146867.05602</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>1993.037966197657</v>
+        <v>11995.48922521724</v>
       </c>
       <c r="C421" t="n">
-        <v>1993037966.197657</v>
+        <v>11995489225.21724</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>1993.697752566972</v>
+        <v>12006.8333711252</v>
       </c>
       <c r="C422" t="n">
-        <v>1993697752.566972</v>
+        <v>12006833371.1252</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>1994.355317585763</v>
+        <v>12018.17930365368</v>
       </c>
       <c r="C423" t="n">
-        <v>1994355317.585763</v>
+        <v>12018179303.65368</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>1995.010676886478</v>
+        <v>12029.52702167802</v>
       </c>
       <c r="C424" t="n">
-        <v>1995010676.886477</v>
+        <v>12029527021.67802</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>1995.66384593459</v>
+        <v>12040.87652407521</v>
       </c>
       <c r="C425" t="n">
-        <v>1995663845.93459</v>
+        <v>12040876524.07521</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>1996.314840030995</v>
+        <v>12052.22780972378</v>
       </c>
       <c r="C426" t="n">
-        <v>1996314840.030995</v>
+        <v>12052227809.72378</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>1996.963674314345</v>
+        <v>12063.58087750386</v>
       </c>
       <c r="C427" t="n">
-        <v>1996963674.314345</v>
+        <v>12063580877.50386</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>1997.61036376336</v>
+        <v>12074.93572629717</v>
       </c>
       <c r="C428" t="n">
-        <v>1997610363.76336</v>
+        <v>12074935726.29717</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>1998.254923199084</v>
+        <v>12086.29235498699</v>
       </c>
       <c r="C429" t="n">
-        <v>1998254923.199084</v>
+        <v>12086292354.98699</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>1998.897367287112</v>
+        <v>12097.65076245819</v>
       </c>
       <c r="C430" t="n">
-        <v>1998897367.287112</v>
+        <v>12097650762.45819</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>1999.537710539766</v>
+        <v>12109.01094759721</v>
       </c>
       <c r="C431" t="n">
-        <v>1999537710.539766</v>
+        <v>12109010947.59721</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2000.175967318248</v>
+        <v>12120.37290929204</v>
       </c>
       <c r="C432" t="n">
-        <v>2000175967.318248</v>
+        <v>12120372909.29204</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2000.812151834738</v>
+        <v>12131.73664643225</v>
       </c>
       <c r="C433" t="n">
-        <v>2000812151.834738</v>
+        <v>12131736646.43225</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2001.44627815447</v>
+        <v>12143.10215790896</v>
       </c>
       <c r="C434" t="n">
-        <v>2001446278.15447</v>
+        <v>12143102157.90896</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2002.078360197768</v>
+        <v>12154.46944261487</v>
       </c>
       <c r="C435" t="n">
-        <v>2002078360.197767</v>
+        <v>12154469442.61487</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2002.708411742035</v>
+        <v>12165.8384994442</v>
       </c>
       <c r="C436" t="n">
-        <v>2002708411.742035</v>
+        <v>12165838499.4442</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2003.336446423728</v>
+        <v>12177.20932729275</v>
       </c>
       <c r="C437" t="n">
-        <v>2003336446.423728</v>
+        <v>12177209327.29275</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2003.962477740285</v>
+        <v>12188.58192505784</v>
       </c>
       <c r="C438" t="n">
-        <v>2003962477.740285</v>
+        <v>12188581925.05784</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2004.586519052018</v>
+        <v>12199.95629163836</v>
       </c>
       <c r="C439" t="n">
-        <v>2004586519.052018</v>
+        <v>12199956291.63836</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2005.208583583987</v>
+        <v>12211.33242593472</v>
       </c>
       <c r="C440" t="n">
-        <v>2005208583.583987</v>
+        <v>12211332425.93472</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2005.828684427825</v>
+        <v>12222.71032684887</v>
       </c>
       <c r="C441" t="n">
-        <v>2005828684.427825</v>
+        <v>12222710326.84887</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2006.446834543544</v>
+        <v>12234.08999328431</v>
       </c>
       <c r="C442" t="n">
-        <v>2006446834.543544</v>
+        <v>12234089993.28431</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2007.063046761308</v>
+        <v>12245.47142414606</v>
       </c>
       <c r="C443" t="n">
-        <v>2007063046.761307</v>
+        <v>12245471424.14606</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2007.677333783172</v>
+        <v>12256.85461834065</v>
       </c>
       <c r="C444" t="n">
-        <v>2007677333.783172</v>
+        <v>12256854618.34065</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2008.289708184797</v>
+        <v>12268.23957477615</v>
       </c>
       <c r="C445" t="n">
-        <v>2008289708.184797</v>
+        <v>12268239574.77616</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2008.900182417133</v>
+        <v>12279.62629236217</v>
       </c>
       <c r="C446" t="n">
-        <v>2008900182.417133</v>
+        <v>12279626292.36217</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2009.508768808076</v>
+        <v>12291.01477000979</v>
       </c>
       <c r="C447" t="n">
-        <v>2009508768.808076</v>
+        <v>12291014770.00979</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2010.115479564094</v>
+        <v>12302.40500663164</v>
       </c>
       <c r="C448" t="n">
-        <v>2010115479.564094</v>
+        <v>12302405006.63164</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2010.720326771831</v>
+        <v>12313.79700114184</v>
       </c>
       <c r="C449" t="n">
-        <v>2010720326.771831</v>
+        <v>12313797001.14184</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2011.323322399682</v>
+        <v>12325.19075245604</v>
       </c>
       <c r="C450" t="n">
-        <v>2011323322.399682</v>
+        <v>12325190752.45605</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2011.92447829934</v>
+        <v>12336.58625949138</v>
       </c>
       <c r="C451" t="n">
-        <v>2011924478.29934</v>
+        <v>12336586259.49138</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2012.523806207322</v>
+        <v>12347.9835211665</v>
       </c>
       <c r="C452" t="n">
-        <v>2012523806.207322</v>
+        <v>12347983521.1665</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2013.121317746466</v>
+        <v>12359.38253640152</v>
       </c>
       <c r="C453" t="n">
-        <v>2013121317.746466</v>
+        <v>12359382536.40153</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2013.717024427408</v>
+        <v>12370.7833041181</v>
       </c>
       <c r="C454" t="n">
-        <v>2013717024.427408</v>
+        <v>12370783304.1181</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2014.310937650029</v>
+        <v>12382.18582323934</v>
       </c>
       <c r="C455" t="n">
-        <v>2014310937.650029</v>
+        <v>12382185823.23934</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2014.903068704887</v>
+        <v>12393.59009268987</v>
       </c>
       <c r="C456" t="n">
-        <v>2014903068.704887</v>
+        <v>12393590092.68987</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2015.493428774613</v>
+        <v>12404.99611139578</v>
       </c>
       <c r="C457" t="n">
-        <v>2015493428.774613</v>
+        <v>12404996111.39578</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2016.082028935302</v>
+        <v>12416.40387828464</v>
       </c>
       <c r="C458" t="n">
-        <v>2016082028.935302</v>
+        <v>12416403878.28464</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2016.668880157865</v>
+        <v>12427.8133922855</v>
       </c>
       <c r="C459" t="n">
-        <v>2016668880.157865</v>
+        <v>12427813392.28551</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2017.253993309371</v>
+        <v>12439.22465232892</v>
       </c>
       <c r="C460" t="n">
-        <v>2017253993.309371</v>
+        <v>12439224652.32892</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2017.83737915436</v>
+        <v>12450.63765734687</v>
       </c>
       <c r="C461" t="n">
-        <v>2017837379.15436</v>
+        <v>12450637657.34687</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2018.419048356142</v>
+        <v>12462.05240627283</v>
       </c>
       <c r="C462" t="n">
-        <v>2018419048.356142</v>
+        <v>12462052406.27283</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2018.999011478068</v>
+        <v>12473.46889804175</v>
       </c>
       <c r="C463" t="n">
-        <v>2018999011.478068</v>
+        <v>12473468898.04175</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2019.577278984789</v>
+        <v>12484.88713159002</v>
       </c>
       <c r="C464" t="n">
-        <v>2019577278.984789</v>
+        <v>12484887131.59002</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2020.153861243487</v>
+        <v>12496.30710585549</v>
       </c>
       <c r="C465" t="n">
-        <v>2020153861.243486</v>
+        <v>12496307105.85549</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2020.728768525094</v>
+        <v>12507.72881977749</v>
       </c>
       <c r="C466" t="n">
-        <v>2020728768.525094</v>
+        <v>12507728819.77748</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2021.302011005487</v>
+        <v>12519.15227229677</v>
       </c>
       <c r="C467" t="n">
-        <v>2021302011.005486</v>
+        <v>12519152272.29677</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2021.873598766667</v>
+        <v>12530.57746235556</v>
       </c>
       <c r="C468" t="n">
-        <v>2021873598.766667</v>
+        <v>12530577462.35556</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2022.44354179792</v>
+        <v>12542.00438889752</v>
       </c>
       <c r="C469" t="n">
-        <v>2022443541.79792</v>
+        <v>12542004388.89752</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2023.011849996956</v>
+        <v>12553.43305086776</v>
       </c>
       <c r="C470" t="n">
-        <v>2023011849.996956</v>
+        <v>12553433050.86776</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2023.578533171034</v>
+        <v>12564.86344721283</v>
       </c>
       <c r="C471" t="n">
-        <v>2023578533.171034</v>
+        <v>12564863447.21283</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2024.143601038073</v>
+        <v>12576.29557688072</v>
       </c>
       <c r="C472" t="n">
-        <v>2024143601.038073</v>
+        <v>12576295576.88072</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2024.707063227738</v>
+        <v>12587.72943882085</v>
       </c>
       <c r="C473" t="n">
-        <v>2024707063.227737</v>
+        <v>12587729438.82085</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2025.268929282512</v>
+        <v>12599.16503198406</v>
       </c>
       <c r="C474" t="n">
-        <v>2025268929.282512</v>
+        <v>12599165031.98406</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2025.829208658761</v>
+        <v>12610.60235532265</v>
       </c>
       <c r="C475" t="n">
-        <v>2025829208.658761</v>
+        <v>12610602355.32265</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2026.387910727765</v>
+        <v>12622.04140779031</v>
       </c>
       <c r="C476" t="n">
-        <v>2026387910.727765</v>
+        <v>12622041407.79031</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2026.94504477675</v>
+        <v>12633.48218834219</v>
       </c>
       <c r="C477" t="n">
-        <v>2026945044.77675</v>
+        <v>12633482188.34219</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2027.500620009897</v>
+        <v>12644.92469593482</v>
       </c>
       <c r="C478" t="n">
-        <v>2027500620.009897</v>
+        <v>12644924695.93482</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2028.054645549333</v>
+        <v>12656.36892952618</v>
       </c>
       <c r="C479" t="n">
-        <v>2028054645.549333</v>
+        <v>12656368929.52618</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2028.607130436116</v>
+        <v>12667.81488807565</v>
       </c>
       <c r="C480" t="n">
-        <v>2028607130.436116</v>
+        <v>12667814888.07565</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2029.158083631198</v>
+        <v>12679.26257054401</v>
       </c>
       <c r="C481" t="n">
-        <v>2029158083.631197</v>
+        <v>12679262570.54401</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2029.70751401637</v>
+        <v>12690.71197589346</v>
       </c>
       <c r="C482" t="n">
-        <v>2029707514.01637</v>
+        <v>12690711975.89346</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2030.255430395211</v>
+        <v>12702.16310308761</v>
       </c>
       <c r="C483" t="n">
-        <v>2030255430.395211</v>
+        <v>12702163103.08761</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2030.801841493998</v>
+        <v>12713.61595109145</v>
       </c>
       <c r="C484" t="n">
-        <v>2030801841.493998</v>
+        <v>12713615951.09145</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2031.346755962623</v>
+        <v>12725.0705188714</v>
       </c>
       <c r="C485" t="n">
-        <v>2031346755.962623</v>
+        <v>12725070518.8714</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2031.890182375486</v>
+        <v>12736.52680539525</v>
       </c>
       <c r="C486" t="n">
-        <v>2031890182.375486</v>
+        <v>12736526805.39525</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2032.432129232377</v>
+        <v>12747.98480963219</v>
       </c>
       <c r="C487" t="n">
-        <v>2032432129.232377</v>
+        <v>12747984809.63219</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2032.972604959348</v>
+        <v>12759.4445305528</v>
       </c>
       <c r="C488" t="n">
-        <v>2032972604.959348</v>
+        <v>12759444530.5528</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2033.511617909568</v>
+        <v>12770.90596712906</v>
       </c>
       <c r="C489" t="n">
-        <v>2033511617.909568</v>
+        <v>12770905967.12906</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2034.049176364166</v>
+        <v>12782.36911833431</v>
       </c>
       <c r="C490" t="n">
-        <v>2034049176.364166</v>
+        <v>12782369118.33431</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2034.585288533069</v>
+        <v>12793.83398314329</v>
       </c>
       <c r="C491" t="n">
-        <v>2034585288.533069</v>
+        <v>12793833983.14329</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2035.119962555814</v>
+        <v>12805.30056053211</v>
       </c>
       <c r="C492" t="n">
-        <v>2035119962.555814</v>
+        <v>12805300560.53211</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2036.185028373898</v>
+        <v>12828.2388489606</v>
       </c>
       <c r="C493" t="n">
-        <v>2036185028.373898</v>
+        <v>12828238848.9606</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2037.244437557447</v>
+        <v>12851.18397545613</v>
       </c>
       <c r="C494" t="n">
-        <v>2037244437.557447</v>
+        <v>12851183975.45613</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2038.298252769863</v>
+        <v>12874.13593187694</v>
       </c>
       <c r="C495" t="n">
-        <v>2038298252.769863</v>
+        <v>12874135931.87694</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2039.346535623167</v>
+        <v>12897.09471010302</v>
       </c>
       <c r="C496" t="n">
-        <v>2039346535.623167</v>
+        <v>12897094710.10302</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2040.389346701567</v>
+        <v>12920.06030203608</v>
       </c>
       <c r="C497" t="n">
-        <v>2040389346.701567</v>
+        <v>12920060302.03608</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2041.426745584359</v>
+        <v>12943.0326995994</v>
       </c>
       <c r="C498" t="n">
-        <v>2041426745.584359</v>
+        <v>12943032699.5994</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2042.458790868202</v>
+        <v>12966.01189473778</v>
       </c>
       <c r="C499" t="n">
-        <v>2042458790.868202</v>
+        <v>12966011894.73778</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2043.485540188762</v>
+        <v>12988.99787941745</v>
       </c>
       <c r="C500" t="n">
-        <v>2043485540.188762</v>
+        <v>12988997879.41746</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2044.507050241774</v>
+        <v>13011.99064562597</v>
       </c>
       <c r="C501" t="n">
-        <v>2044507050.241774</v>
+        <v>13011990645.62597</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2045.523376803518</v>
+        <v>13034.99018537213</v>
       </c>
       <c r="C502" t="n">
-        <v>2045523376.803519</v>
+        <v>13034990185.37213</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2046.534574750747</v>
+        <v>13057.99649068589</v>
       </c>
       <c r="C503" t="n">
-        <v>2046534574.750747</v>
+        <v>13057996490.68589</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2047.540698080064</v>
+        <v>13081.00955361826</v>
       </c>
       <c r="C504" t="n">
-        <v>2047540698.080065</v>
+        <v>13081009553.61826</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2048.54179992679</v>
+        <v>13104.02936624126</v>
       </c>
       <c r="C505" t="n">
-        <v>2048541799.92679</v>
+        <v>13104029366.24126</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2049.537932583318</v>
+        <v>13127.05592064779</v>
       </c>
       <c r="C506" t="n">
-        <v>2049537932.583318</v>
+        <v>13127055920.64779</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2050.529147516982</v>
+        <v>13150.08920895157</v>
       </c>
       <c r="C507" t="n">
-        <v>2050529147.516983</v>
+        <v>13150089208.95156</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2051.515495387455</v>
+        <v>13173.12922328703</v>
       </c>
       <c r="C508" t="n">
-        <v>2051515495.387455</v>
+        <v>13173129223.28703</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2052.497026063683</v>
+        <v>13196.17595580925</v>
       </c>
       <c r="C509" t="n">
-        <v>2052497026.063683</v>
+        <v>13196175955.80925</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2053.473788640381</v>
+        <v>13219.22939869388</v>
       </c>
       <c r="C510" t="n">
-        <v>2053473788.640381</v>
+        <v>13219229398.69388</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2054.445831454096</v>
+        <v>13242.28954413703</v>
       </c>
       <c r="C511" t="n">
-        <v>2054445831.454096</v>
+        <v>13242289544.13703</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2055.413202098856</v>
+        <v>13265.35638435521</v>
       </c>
       <c r="C512" t="n">
-        <v>2055413202.098856</v>
+        <v>13265356384.35521</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2056.375947441413</v>
+        <v>13288.42991158522</v>
       </c>
       <c r="C513" t="n">
-        <v>2056375947.441413</v>
+        <v>13288429911.58522</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2057.334113636099</v>
+        <v>13311.5101180841</v>
       </c>
       <c r="C514" t="n">
-        <v>2057334113.636099</v>
+        <v>13311510118.0841</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2058.287746139296</v>
+        <v>13334.59699612904</v>
       </c>
       <c r="C515" t="n">
-        <v>2058287746.139296</v>
+        <v>13334596996.12904</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2059.236889723548</v>
+        <v>13357.69053801727</v>
       </c>
       <c r="C516" t="n">
-        <v>2059236889.723548</v>
+        <v>13357690538.01727</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2060.181588491308</v>
+        <v>13380.79073606602</v>
       </c>
       <c r="C517" t="n">
-        <v>2060181588.491308</v>
+        <v>13380790736.06602</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2061.121885888345</v>
+        <v>13403.89758261242</v>
       </c>
       <c r="C518" t="n">
-        <v>2061121885.888345</v>
+        <v>13403897582.61242</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2062.057824716816</v>
+        <v>13427.0110700134</v>
       </c>
       <c r="C519" t="n">
-        <v>2062057824.716815</v>
+        <v>13427011070.0134</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2062.989447148007</v>
+        <v>13450.13119064566</v>
       </c>
       <c r="C520" t="n">
-        <v>2062989447.148007</v>
+        <v>13450131190.64566</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2063.91679473477</v>
+        <v>13473.25793690554</v>
       </c>
       <c r="C521" t="n">
-        <v>2063916794.73477</v>
+        <v>13473257936.90554</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2064.83990842364</v>
+        <v>13496.39130120898</v>
       </c>
       <c r="C522" t="n">
-        <v>2064839908.42364</v>
+        <v>13496391301.20898</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2066.673594932947</v>
+        <v>13542.67785370769</v>
       </c>
       <c r="C523" t="n">
-        <v>2066673594.932947</v>
+        <v>13542677853.70769</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2068.490822564223</v>
+        <v>13588.99078785793</v>
       </c>
       <c r="C524" t="n">
-        <v>2068490822.564223</v>
+        <v>13588990787.85793</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2070.291898232422</v>
+        <v>13635.33004368422</v>
       </c>
       <c r="C525" t="n">
-        <v>2070291898.232422</v>
+        <v>13635330043.68422</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2072.077120218326</v>
+        <v>13681.69556151695</v>
       </c>
       <c r="C526" t="n">
-        <v>2072077120.218326</v>
+        <v>13681695561.51695</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2073.846778491767</v>
+        <v>13728.08728199005</v>
       </c>
       <c r="C527" t="n">
-        <v>2073846778.491767</v>
+        <v>13728087281.99005</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2075.601155019802</v>
+        <v>13774.5051460385</v>
       </c>
       <c r="C528" t="n">
-        <v>2075601155.019802</v>
+        <v>13774505146.0385</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2077.340524060675</v>
+        <v>13820.94909489604</v>
       </c>
       <c r="C529" t="n">
-        <v>2077340524.060675</v>
+        <v>13820949094.89604</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2079.06515244434</v>
+        <v>13867.4190700928</v>
       </c>
       <c r="C530" t="n">
-        <v>2079065152.44434</v>
+        <v>13867419070.0928</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2080.775299840289</v>
+        <v>13913.91501345295</v>
       </c>
       <c r="C531" t="n">
-        <v>2080775299.840289</v>
+        <v>13913915013.45295</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2082.471219013363</v>
+        <v>13960.43686709245</v>
       </c>
       <c r="C532" t="n">
-        <v>2082471219.013363</v>
+        <v>13960436867.09245</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2084.153156068191</v>
+        <v>14006.98457341674</v>
       </c>
       <c r="C533" t="n">
-        <v>2084153156.068192</v>
+        <v>14006984573.41674</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2085.821350682862</v>
+        <v>14053.55807511856</v>
       </c>
       <c r="C534" t="n">
-        <v>2085821350.682862</v>
+        <v>14053558075.11856</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2087.476036332385</v>
+        <v>14100.15731517563</v>
       </c>
       <c r="C535" t="n">
-        <v>2087476036.332385</v>
+        <v>14100157315.17563</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2089.117440502495</v>
+        <v>14146.78223684854</v>
       </c>
       <c r="C536" t="n">
-        <v>2089117440.502495</v>
+        <v>14146782236.84854</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2090.745784894268</v>
+        <v>14193.43278367853</v>
       </c>
       <c r="C537" t="n">
-        <v>2090745784.894268</v>
+        <v>14193432783.67853</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2092.361285620045</v>
+        <v>14240.10889948533</v>
       </c>
       <c r="C538" t="n">
-        <v>2092361285.620045</v>
+        <v>14240108899.48533</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2093.964153391091</v>
+        <v>14286.81052836506</v>
       </c>
       <c r="C539" t="n">
-        <v>2093964153.391091</v>
+        <v>14286810528.36506</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2095.554593697411</v>
+        <v>14333.5376146881</v>
       </c>
       <c r="C540" t="n">
-        <v>2095554593.697411</v>
+        <v>14333537614.6881</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2097.13280698011</v>
+        <v>14380.290103097</v>
       </c>
       <c r="C541" t="n">
-        <v>2097132806.98011</v>
+        <v>14380290103.097</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2098.698988796667</v>
+        <v>14427.06793850444</v>
       </c>
       <c r="C542" t="n">
-        <v>2098698988.796667</v>
+        <v>14427067938.50443</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2100.253329979478</v>
+        <v>14473.87106609112</v>
       </c>
       <c r="C543" t="n">
-        <v>2100253329.979478</v>
+        <v>14473871066.09112</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2101.796016787978</v>
+        <v>14520.69943130384</v>
       </c>
       <c r="C544" t="n">
-        <v>2101796016.787978</v>
+        <v>14520699431.30383</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2103.327231054678</v>
+        <v>14567.55297985339</v>
       </c>
       <c r="C545" t="n">
-        <v>2103327231.054678</v>
+        <v>14567552979.85339</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2104.847150325378</v>
+        <v>14614.43165771266</v>
       </c>
       <c r="C546" t="n">
-        <v>2104847150.325378</v>
+        <v>14614431657.71266</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2106.355947993859</v>
+        <v>14661.33541111461</v>
       </c>
       <c r="C547" t="n">
-        <v>2106355947.993859</v>
+        <v>14661335411.1146</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2107.853793431299</v>
+        <v>14708.26418655033</v>
       </c>
       <c r="C548" t="n">
-        <v>2107853793.431298</v>
+        <v>14708264186.55033</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2109.340852110664</v>
+        <v>14755.21793076719</v>
       </c>
       <c r="C549" t="n">
-        <v>2109340852.110664</v>
+        <v>14755217930.76719</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2110.81728572631</v>
+        <v>14802.19659076685</v>
       </c>
       <c r="C550" t="n">
-        <v>2110817285.72631</v>
+        <v>14802196590.76685</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2112.283252309002</v>
+        <v>14849.20011380341</v>
       </c>
       <c r="C551" t="n">
-        <v>2112283252.309002</v>
+        <v>14849200113.80341</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2113.738906336588</v>
+        <v>14896.22844738157</v>
       </c>
       <c r="C552" t="n">
-        <v>2113738906.336588</v>
+        <v>14896228447.38157</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2115.18439884049</v>
+        <v>14943.28153925472</v>
       </c>
       <c r="C553" t="n">
-        <v>2115184398.84049</v>
+        <v>14943281539.25472</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2116.61987750823</v>
+        <v>14990.3593374232</v>
       </c>
       <c r="C554" t="n">
-        <v>2116619877.50823</v>
+        <v>14990359337.42319</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2118.045486782148</v>
+        <v>15037.46179013238</v>
       </c>
       <c r="C555" t="n">
-        <v>2118045486.782148</v>
+        <v>15037461790.13238</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2119.461367954487</v>
+        <v>15084.58884587098</v>
       </c>
       <c r="C556" t="n">
-        <v>2119461367.954487</v>
+        <v>15084588845.87098</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2120.867659259013</v>
+        <v>15131.74045336923</v>
       </c>
       <c r="C557" t="n">
-        <v>2120867659.259013</v>
+        <v>15131740453.36923</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2122.264495959306</v>
+        <v>15178.91656159709</v>
       </c>
       <c r="C558" t="n">
-        <v>2122264495.959306</v>
+        <v>15178916561.59709</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2123.652010433878</v>
+        <v>15226.1171197626</v>
       </c>
       <c r="C559" t="n">
-        <v>2123652010.433878</v>
+        <v>15226117119.7626</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2125.030332258248</v>
+        <v>15273.34207731007</v>
       </c>
       <c r="C560" t="n">
-        <v>2125030332.258248</v>
+        <v>15273342077.31007</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2126.399588284108</v>
+        <v>15320.59138391842</v>
       </c>
       <c r="C561" t="n">
-        <v>2126399588.284108</v>
+        <v>15320591383.91842</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2127.759902715701</v>
+        <v>15367.86498949946</v>
       </c>
       <c r="C562" t="n">
-        <v>2127759902.715701</v>
+        <v>15367864989.49946</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2129.111397183527</v>
+        <v>15415.16284419627</v>
       </c>
       <c r="C563" t="n">
-        <v>2129111397.183527</v>
+        <v>15415162844.19627</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2130.454190815496</v>
+        <v>15462.48489838148</v>
       </c>
       <c r="C564" t="n">
-        <v>2130454190.815496</v>
+        <v>15462484898.38148</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2131.788400305619</v>
+        <v>15509.83110265567</v>
       </c>
       <c r="C565" t="n">
-        <v>2131788400.305619</v>
+        <v>15509831102.65567</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2133.114139980358</v>
+        <v>15557.20140784575</v>
       </c>
       <c r="C566" t="n">
-        <v>2133114139.980358</v>
+        <v>15557201407.84575</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2134.431521862713</v>
+        <v>15604.5957650033</v>
       </c>
       <c r="C567" t="n">
-        <v>2134431521.862713</v>
+        <v>15604595765.0033</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2135.740655734149</v>
+        <v>15652.01412540306</v>
       </c>
       <c r="C568" t="n">
-        <v>2135740655.734149</v>
+        <v>15652014125.40306</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2137.041649194446</v>
+        <v>15699.45644054126</v>
       </c>
       <c r="C569" t="n">
-        <v>2137041649.194446</v>
+        <v>15699456440.54126</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2138.334607719557</v>
+        <v>15746.92266213414</v>
       </c>
       <c r="C570" t="n">
-        <v>2138334607.719557</v>
+        <v>15746922662.13414</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2139.619634717549</v>
+        <v>15794.41274211634</v>
       </c>
       <c r="C571" t="n">
-        <v>2139619634.717549</v>
+        <v>15794412742.11634</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2140.896831582713</v>
+        <v>15841.92663263939</v>
       </c>
       <c r="C572" t="n">
-        <v>2140896831.582713</v>
+        <v>15841926632.63939</v>
       </c>
     </row>
   </sheetData>
